--- a/signal_map/signalmap_safestrip_interfaces_v5.0.xlsx
+++ b/signal_map/signalmap_safestrip_interfaces_v5.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giammarco/GoogleDriveUNITN/PHDxxx/Projects/SAFESTRIP/safestrip-mqtt-interface/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giammarco/GoogleDriveUNITN/PHDxxx/Projects/SAFESTRIP/MQTT_for_safestrip/signal_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49D671-9EBB-354E-9382-6FE11614B75D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A3DB7-DA21-974A-A077-017C1D0E0FA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2480" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{FBF927E7-8919-754A-9B9B-553D825B3903}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="599">
   <si>
     <t>version:5.0</t>
   </si>
@@ -1594,15 +1594,6 @@
   </si>
   <si>
     <t>VirtualToll_input/#{RFID_ID}</t>
-  </si>
-  <si>
-    <t>strip_type</t>
-  </si>
-  <si>
-    <t>Strip Type</t>
-  </si>
-  <si>
-    <t>!!! To define</t>
   </si>
   <si>
     <t>virtual_gate_distance</t>
@@ -2649,6 +2640,51 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="29" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2698,51 +2734,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3062,11 +3053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EC5FC3-03DD-9345-8521-B8CE154A93B9}">
-  <dimension ref="A1:P260"/>
+  <dimension ref="A1:P259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B210" sqref="B210"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A225" sqref="A225:XFD225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3081,22 +3072,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109"/>
+      <c r="B1" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="111"/>
+      <c r="K1" s="126"/>
       <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
@@ -3147,13 +3138,13 @@
       <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="114"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="129"/>
     </row>
     <row r="3" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -7914,19 +7905,19 @@
       <c r="P119" s="17"/>
     </row>
     <row r="120" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="115" t="s">
+      <c r="A120" s="130" t="s">
         <v>353</v>
       </c>
-      <c r="B120" s="116"/>
-      <c r="C120" s="116"/>
-      <c r="D120" s="116"/>
-      <c r="E120" s="116"/>
-      <c r="F120" s="116"/>
-      <c r="G120" s="116"/>
-      <c r="H120" s="116"/>
-      <c r="I120" s="116"/>
-      <c r="J120" s="116"/>
-      <c r="K120" s="116"/>
+      <c r="B120" s="131"/>
+      <c r="C120" s="131"/>
+      <c r="D120" s="131"/>
+      <c r="E120" s="131"/>
+      <c r="F120" s="131"/>
+      <c r="G120" s="131"/>
+      <c r="H120" s="131"/>
+      <c r="I120" s="131"/>
+      <c r="J120" s="131"/>
+      <c r="K120" s="131"/>
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
@@ -8396,19 +8387,19 @@
       <c r="P133" s="17"/>
     </row>
     <row r="134" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="117" t="s">
+      <c r="A134" s="132" t="s">
         <v>381</v>
       </c>
-      <c r="B134" s="118"/>
-      <c r="C134" s="118"/>
-      <c r="D134" s="118"/>
-      <c r="E134" s="118"/>
-      <c r="F134" s="118"/>
-      <c r="G134" s="118"/>
-      <c r="H134" s="118"/>
-      <c r="I134" s="118"/>
-      <c r="J134" s="118"/>
-      <c r="K134" s="119"/>
+      <c r="B134" s="133"/>
+      <c r="C134" s="133"/>
+      <c r="D134" s="133"/>
+      <c r="E134" s="133"/>
+      <c r="F134" s="133"/>
+      <c r="G134" s="133"/>
+      <c r="H134" s="133"/>
+      <c r="I134" s="133"/>
+      <c r="J134" s="133"/>
+      <c r="K134" s="134"/>
       <c r="L134" s="17"/>
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
@@ -8420,7 +8411,7 @@
         <v>382</v>
       </c>
       <c r="B135" s="60" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C135" s="61"/>
       <c r="D135" s="62"/>
@@ -8790,19 +8781,19 @@
       </c>
     </row>
     <row r="145" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="103" t="s">
+      <c r="A145" s="118" t="s">
         <v>384</v>
       </c>
-      <c r="B145" s="104"/>
-      <c r="C145" s="104"/>
-      <c r="D145" s="104"/>
-      <c r="E145" s="104"/>
-      <c r="F145" s="104"/>
-      <c r="G145" s="104"/>
-      <c r="H145" s="104"/>
-      <c r="I145" s="104"/>
-      <c r="J145" s="104"/>
-      <c r="K145" s="104"/>
+      <c r="B145" s="119"/>
+      <c r="C145" s="119"/>
+      <c r="D145" s="119"/>
+      <c r="E145" s="119"/>
+      <c r="F145" s="119"/>
+      <c r="G145" s="119"/>
+      <c r="H145" s="119"/>
+      <c r="I145" s="119"/>
+      <c r="J145" s="119"/>
+      <c r="K145" s="119"/>
       <c r="L145" s="17"/>
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
@@ -9286,19 +9277,19 @@
       <c r="P159" s="17"/>
     </row>
     <row r="160" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="103" t="s">
+      <c r="A160" s="118" t="s">
         <v>405</v>
       </c>
-      <c r="B160" s="104"/>
-      <c r="C160" s="104"/>
-      <c r="D160" s="104"/>
-      <c r="E160" s="104"/>
-      <c r="F160" s="104"/>
-      <c r="G160" s="104"/>
-      <c r="H160" s="104"/>
-      <c r="I160" s="104"/>
-      <c r="J160" s="104"/>
-      <c r="K160" s="104"/>
+      <c r="B160" s="119"/>
+      <c r="C160" s="119"/>
+      <c r="D160" s="119"/>
+      <c r="E160" s="119"/>
+      <c r="F160" s="119"/>
+      <c r="G160" s="119"/>
+      <c r="H160" s="119"/>
+      <c r="I160" s="119"/>
+      <c r="J160" s="119"/>
+      <c r="K160" s="119"/>
       <c r="L160" s="17"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
@@ -10386,19 +10377,19 @@
       <c r="P192" s="17"/>
     </row>
     <row r="193" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="105" t="s">
+      <c r="A193" s="120" t="s">
         <v>473</v>
       </c>
-      <c r="B193" s="106"/>
-      <c r="C193" s="106"/>
-      <c r="D193" s="106"/>
-      <c r="E193" s="106"/>
-      <c r="F193" s="106"/>
-      <c r="G193" s="106"/>
-      <c r="H193" s="106"/>
-      <c r="I193" s="106"/>
-      <c r="J193" s="106"/>
-      <c r="K193" s="106"/>
+      <c r="B193" s="121"/>
+      <c r="C193" s="121"/>
+      <c r="D193" s="121"/>
+      <c r="E193" s="121"/>
+      <c r="F193" s="121"/>
+      <c r="G193" s="121"/>
+      <c r="H193" s="121"/>
+      <c r="I193" s="121"/>
+      <c r="J193" s="121"/>
+      <c r="K193" s="121"/>
       <c r="L193" s="17"/>
       <c r="M193" s="17"/>
       <c r="N193" s="17"/>
@@ -11458,8 +11449,12 @@
         <v>66</v>
       </c>
       <c r="F225" s="75"/>
-      <c r="G225" s="78"/>
-      <c r="H225" s="75"/>
+      <c r="G225" s="78">
+        <v>1</v>
+      </c>
+      <c r="H225" s="75" t="s">
+        <v>70</v>
+      </c>
       <c r="I225" s="72" t="s">
         <v>29</v>
       </c>
@@ -11477,27 +11472,23 @@
     </row>
     <row r="226" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="B226" s="76"/>
+      <c r="C226" s="76" t="s">
         <v>524</v>
       </c>
-      <c r="B226" s="76" t="s">
-        <v>525</v>
-      </c>
-      <c r="C226" s="79" t="s">
-        <v>526</v>
-      </c>
       <c r="D226" s="78">
         <v>1</v>
       </c>
-      <c r="E226" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F226" s="75"/>
-      <c r="G226" s="78">
-        <v>1</v>
-      </c>
-      <c r="H226" s="75" t="s">
-        <v>70</v>
-      </c>
+      <c r="E226" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F226" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G226" s="78"/>
+      <c r="H226" s="75"/>
       <c r="I226" s="72" t="s">
         <v>29</v>
       </c>
@@ -11514,29 +11505,33 @@
       </c>
     </row>
     <row r="227" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="B227" s="76"/>
-      <c r="C227" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="D227" s="78">
-        <v>1</v>
-      </c>
-      <c r="E227" s="89" t="s">
+      <c r="A227" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="B227" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D227" s="23">
+        <v>1</v>
+      </c>
+      <c r="E227" s="18" t="s">
         <v>79</v>
       </c>
       <c r="F227" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G227" s="78"/>
-      <c r="H227" s="75"/>
-      <c r="I227" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J227" s="73"/>
-      <c r="K227" s="74"/>
+      <c r="G227" s="23"/>
+      <c r="H227" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I227" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J227" s="20"/>
+      <c r="K227" s="21"/>
       <c r="L227" s="17" t="s">
         <v>257</v>
       </c>
@@ -11548,33 +11543,33 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="B228" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D228" s="23">
+      <c r="A228" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B228" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C228" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="D228" s="17">
         <v>1</v>
       </c>
       <c r="E228" s="18" t="s">
         <v>79</v>
       </c>
       <c r="F228" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G228" s="23"/>
-      <c r="H228" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="G228" s="17"/>
+      <c r="H228" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="I228" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J228" s="20"/>
-      <c r="K228" s="21"/>
+      <c r="I228" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J228" s="73"/>
+      <c r="K228" s="74"/>
       <c r="L228" s="17" t="s">
         <v>257</v>
       </c>
@@ -11586,95 +11581,95 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="B229" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="C229" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="D229" s="17">
-        <v>1</v>
-      </c>
-      <c r="E229" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F229" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="G229" s="17"/>
-      <c r="H229" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="I229" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J229" s="73"/>
-      <c r="K229" s="74"/>
-      <c r="L229" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="A229" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="B229" s="90" t="s">
+        <v>527</v>
+      </c>
+      <c r="C229" s="98"/>
+      <c r="D229" s="99"/>
+      <c r="E229" s="65"/>
+      <c r="F229" s="65"/>
+      <c r="G229" s="99"/>
+      <c r="H229" s="65"/>
+      <c r="I229" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J229" s="65"/>
+      <c r="K229" s="66"/>
+      <c r="L229" s="17"/>
       <c r="M229" s="17"/>
       <c r="N229" s="17"/>
       <c r="O229" s="17"/>
-      <c r="P229" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="P229" s="17"/>
     </row>
     <row r="230" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="59" t="s">
-        <v>529</v>
-      </c>
-      <c r="B230" s="90" t="s">
-        <v>530</v>
-      </c>
-      <c r="C230" s="98"/>
-      <c r="D230" s="99"/>
-      <c r="E230" s="65"/>
-      <c r="F230" s="65"/>
-      <c r="G230" s="99"/>
-      <c r="H230" s="65"/>
-      <c r="I230" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J230" s="65"/>
-      <c r="K230" s="66"/>
+      <c r="A230" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E230" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F230" s="18"/>
+      <c r="G230" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H230" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I230" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J230" s="20"/>
+      <c r="K230" s="21"/>
       <c r="L230" s="17"/>
       <c r="M230" s="17"/>
-      <c r="N230" s="17"/>
+      <c r="N230" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="O230" s="17"/>
-      <c r="P230" s="17"/>
+      <c r="P230" s="17" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="231" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B231" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C231" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" s="18" t="s">
-        <v>26</v>
+      <c r="A231" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B231" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C231" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="D231" s="17">
+        <v>1</v>
       </c>
       <c r="E231" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F231" s="18"/>
-      <c r="G231" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H231" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I231" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J231" s="20"/>
-      <c r="K231" s="21"/>
+        <v>79</v>
+      </c>
+      <c r="F231" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="G231" s="17"/>
+      <c r="H231" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="I231" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J231" s="73"/>
+      <c r="K231" s="74"/>
       <c r="L231" s="17"/>
       <c r="M231" s="17"/>
       <c r="N231" s="17" t="s">
@@ -11682,31 +11677,31 @@
       </c>
       <c r="O231" s="17"/>
       <c r="P231" s="17" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="B232" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="C232" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="D232" s="17">
-        <v>1</v>
-      </c>
-      <c r="E232" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F232" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="G232" s="17"/>
-      <c r="H232" s="97" t="s">
-        <v>64</v>
+      <c r="A232" s="75" t="s">
+        <v>521</v>
+      </c>
+      <c r="B232" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="C232" s="79" t="s">
+        <v>523</v>
+      </c>
+      <c r="D232" s="78">
+        <v>1</v>
+      </c>
+      <c r="E232" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F232" s="75"/>
+      <c r="G232" s="78">
+        <v>1</v>
+      </c>
+      <c r="H232" s="75" t="s">
+        <v>70</v>
       </c>
       <c r="I232" s="72" t="s">
         <v>29</v>
@@ -11720,31 +11715,31 @@
       </c>
       <c r="O232" s="17"/>
       <c r="P232" s="17" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="75" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B233" s="76" t="s">
-        <v>525</v>
-      </c>
-      <c r="C233" s="79" t="s">
-        <v>526</v>
+        <v>529</v>
+      </c>
+      <c r="C233" s="76" t="s">
+        <v>530</v>
       </c>
       <c r="D233" s="78">
         <v>1</v>
       </c>
-      <c r="E233" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F233" s="75"/>
+      <c r="E233" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F233" s="37"/>
       <c r="G233" s="78">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H233" s="75" t="s">
-        <v>70</v>
+        <v>515</v>
       </c>
       <c r="I233" s="72" t="s">
         <v>29</v>
@@ -11765,25 +11760,19 @@
       <c r="A234" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="B234" s="76" t="s">
+      <c r="B234" s="76"/>
+      <c r="C234" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="C234" s="76" t="s">
-        <v>533</v>
-      </c>
       <c r="D234" s="78">
         <v>1</v>
       </c>
       <c r="E234" s="89" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F234" s="37"/>
-      <c r="G234" s="78">
-        <v>100</v>
-      </c>
-      <c r="H234" s="75" t="s">
-        <v>515</v>
-      </c>
+      <c r="G234" s="78"/>
+      <c r="H234" s="75"/>
       <c r="I234" s="72" t="s">
         <v>29</v>
       </c>
@@ -11800,97 +11789,105 @@
       </c>
     </row>
     <row r="235" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="75" t="s">
+      <c r="A235" s="116" t="s">
+        <v>533</v>
+      </c>
+      <c r="B235" s="117" t="s">
         <v>534</v>
       </c>
-      <c r="B235" s="76"/>
-      <c r="C235" s="76" t="s">
+      <c r="C235" s="103"/>
+      <c r="D235" s="104"/>
+      <c r="E235" s="105"/>
+      <c r="F235" s="105"/>
+      <c r="G235" s="104"/>
+      <c r="H235" s="105"/>
+      <c r="I235" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="J235" s="105"/>
+      <c r="K235" s="106"/>
+      <c r="L235" s="107"/>
+      <c r="M235" s="102"/>
+      <c r="N235" s="102"/>
+      <c r="O235" s="102"/>
+      <c r="P235" s="102"/>
+    </row>
+    <row r="236" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C236" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D236" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E236" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F236" s="67"/>
+      <c r="G236" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H236" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I236" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="J236" s="109"/>
+      <c r="K236" s="110"/>
+      <c r="L236" s="102" t="s">
+        <v>493</v>
+      </c>
+      <c r="M236" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="N236" s="102" t="s">
         <v>535</v>
       </c>
-      <c r="D235" s="78">
-        <v>1</v>
-      </c>
-      <c r="E235" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="F235" s="37"/>
-      <c r="G235" s="78"/>
-      <c r="H235" s="75"/>
-      <c r="I235" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J235" s="73"/>
-      <c r="K235" s="74"/>
-      <c r="L235" s="17"/>
-      <c r="M235" s="17"/>
-      <c r="N235" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O235" s="17"/>
-      <c r="P235" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="133" t="s">
-        <v>536</v>
-      </c>
-      <c r="B236" s="134" t="s">
-        <v>537</v>
-      </c>
-      <c r="C236" s="120"/>
-      <c r="D236" s="121"/>
-      <c r="E236" s="122"/>
-      <c r="F236" s="122"/>
-      <c r="G236" s="121"/>
-      <c r="H236" s="122"/>
-      <c r="I236" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="J236" s="122"/>
-      <c r="K236" s="123"/>
-      <c r="L236" s="124"/>
-      <c r="M236" s="102"/>
-      <c r="N236" s="102"/>
       <c r="O236" s="102"/>
-      <c r="P236" s="102"/>
+      <c r="P236" s="102" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="237" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B237" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C237" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D237" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E237" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="F237" s="67"/>
-      <c r="G237" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H237" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="I237" s="125" t="s">
-        <v>29</v>
-      </c>
-      <c r="J237" s="126"/>
-      <c r="K237" s="127"/>
+      <c r="A237" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="B237" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="C237" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="D237" s="71">
+        <v>1</v>
+      </c>
+      <c r="E237" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F237" s="68"/>
+      <c r="G237" s="71"/>
+      <c r="H237" s="68"/>
+      <c r="I237" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J237" s="113"/>
+      <c r="K237" s="114" t="s">
+        <v>29</v>
+      </c>
       <c r="L237" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M237" s="128" t="s">
+      <c r="M237" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N237" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O237" s="102"/>
       <c r="P237" s="102" t="s">
@@ -11898,39 +11895,41 @@
       </c>
     </row>
     <row r="238" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="B238" s="69" t="s">
-        <v>347</v>
-      </c>
-      <c r="C238" s="70" t="s">
-        <v>348</v>
-      </c>
-      <c r="D238" s="71">
-        <v>1</v>
-      </c>
-      <c r="E238" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F238" s="68"/>
-      <c r="G238" s="71"/>
-      <c r="H238" s="68"/>
-      <c r="I238" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J238" s="130"/>
-      <c r="K238" s="131" t="s">
+      <c r="A238" s="100" t="s">
+        <v>536</v>
+      </c>
+      <c r="B238" s="101" t="s">
+        <v>537</v>
+      </c>
+      <c r="C238" s="101" t="s">
+        <v>538</v>
+      </c>
+      <c r="D238" s="102">
+        <v>1</v>
+      </c>
+      <c r="E238" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F238" s="100"/>
+      <c r="G238" s="102"/>
+      <c r="H238" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="I238" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J238" s="113"/>
+      <c r="K238" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L238" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M238" s="128" t="s">
+      <c r="M238" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N238" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O238" s="102"/>
       <c r="P238" s="102" t="s">
@@ -11958,21 +11957,21 @@
       <c r="H239" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I239" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J239" s="130"/>
-      <c r="K239" s="132" t="s">
+      <c r="I239" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J239" s="113"/>
+      <c r="K239" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L239" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M239" s="128" t="s">
+      <c r="M239" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N239" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O239" s="102"/>
       <c r="P239" s="102" t="s">
@@ -12000,21 +11999,21 @@
       <c r="H240" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I240" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J240" s="130"/>
-      <c r="K240" s="132" t="s">
+      <c r="I240" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J240" s="113"/>
+      <c r="K240" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L240" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M240" s="128" t="s">
+      <c r="M240" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N240" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O240" s="102"/>
       <c r="P240" s="102" t="s">
@@ -12042,21 +12041,21 @@
       <c r="H241" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I241" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J241" s="130"/>
-      <c r="K241" s="132" t="s">
+      <c r="I241" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J241" s="113"/>
+      <c r="K241" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L241" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M241" s="128" t="s">
+      <c r="M241" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N241" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O241" s="102"/>
       <c r="P241" s="102" t="s">
@@ -12084,21 +12083,21 @@
       <c r="H242" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I242" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J242" s="130"/>
-      <c r="K242" s="132" t="s">
+      <c r="I242" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J242" s="113"/>
+      <c r="K242" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L242" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M242" s="128" t="s">
+      <c r="M242" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N242" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O242" s="102"/>
       <c r="P242" s="102" t="s">
@@ -12126,21 +12125,21 @@
       <c r="H243" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I243" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J243" s="130"/>
-      <c r="K243" s="132" t="s">
+      <c r="I243" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J243" s="113"/>
+      <c r="K243" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L243" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M243" s="128" t="s">
+      <c r="M243" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N243" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O243" s="102"/>
       <c r="P243" s="102" t="s">
@@ -12168,21 +12167,21 @@
       <c r="H244" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I244" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J244" s="130"/>
-      <c r="K244" s="132" t="s">
+      <c r="I244" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J244" s="113"/>
+      <c r="K244" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L244" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M244" s="128" t="s">
+      <c r="M244" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N244" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O244" s="102"/>
       <c r="P244" s="102" t="s">
@@ -12210,21 +12209,21 @@
       <c r="H245" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I245" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J245" s="130"/>
-      <c r="K245" s="132" t="s">
+      <c r="I245" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J245" s="113"/>
+      <c r="K245" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L245" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M245" s="128" t="s">
+      <c r="M245" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N245" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O245" s="102"/>
       <c r="P245" s="102" t="s">
@@ -12252,21 +12251,21 @@
       <c r="H246" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="I246" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J246" s="130"/>
-      <c r="K246" s="132" t="s">
+      <c r="I246" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J246" s="113"/>
+      <c r="K246" s="115" t="s">
         <v>29</v>
       </c>
       <c r="L246" s="102" t="s">
         <v>493</v>
       </c>
-      <c r="M246" s="128" t="s">
+      <c r="M246" s="111" t="s">
         <v>183</v>
       </c>
       <c r="N246" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O246" s="102"/>
       <c r="P246" s="102" t="s">
@@ -12274,92 +12273,86 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="100" t="s">
+      <c r="A247" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="B247" s="101" t="s">
+      <c r="B247" s="95" t="s">
         <v>564</v>
       </c>
-      <c r="C247" s="101" t="s">
-        <v>565</v>
-      </c>
-      <c r="D247" s="102">
-        <v>1</v>
-      </c>
-      <c r="E247" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="F247" s="100"/>
-      <c r="G247" s="102"/>
-      <c r="H247" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="I247" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="J247" s="130"/>
-      <c r="K247" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="L247" s="102" t="s">
-        <v>493</v>
-      </c>
-      <c r="M247" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="N247" s="102" t="s">
-        <v>538</v>
-      </c>
-      <c r="O247" s="102"/>
-      <c r="P247" s="102" t="s">
-        <v>493</v>
-      </c>
+      <c r="C247" s="98"/>
+      <c r="D247" s="99"/>
+      <c r="E247" s="65"/>
+      <c r="F247" s="65"/>
+      <c r="G247" s="99"/>
+      <c r="H247" s="65"/>
+      <c r="I247" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J247" s="65"/>
+      <c r="K247" s="66"/>
+      <c r="L247" s="17"/>
+      <c r="M247" s="17"/>
+      <c r="N247" s="17"/>
+      <c r="O247" s="17"/>
+      <c r="P247" s="17"/>
     </row>
     <row r="248" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="59" t="s">
-        <v>566</v>
-      </c>
-      <c r="B248" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C248" s="98"/>
-      <c r="D248" s="99"/>
-      <c r="E248" s="65"/>
-      <c r="F248" s="65"/>
-      <c r="G248" s="99"/>
-      <c r="H248" s="65"/>
-      <c r="I248" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J248" s="65"/>
-      <c r="K248" s="66"/>
-      <c r="L248" s="17"/>
+      <c r="A248" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="B248" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="C248" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="D248" s="78">
+        <v>1</v>
+      </c>
+      <c r="E248" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F248" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G248" s="78"/>
+      <c r="H248" s="75"/>
+      <c r="I248" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J248" s="73"/>
+      <c r="K248" s="74"/>
+      <c r="L248" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="M248" s="17"/>
       <c r="N248" s="17"/>
       <c r="O248" s="17"/>
       <c r="P248" s="17"/>
     </row>
     <row r="249" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="B249" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="C249" s="76" t="s">
-        <v>527</v>
-      </c>
-      <c r="D249" s="78">
-        <v>1</v>
-      </c>
-      <c r="E249" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F249" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G249" s="78"/>
-      <c r="H249" s="75"/>
+      <c r="A249" s="97" t="s">
+        <v>565</v>
+      </c>
+      <c r="B249" s="77" t="s">
+        <v>566</v>
+      </c>
+      <c r="C249" s="77" t="s">
+        <v>567</v>
+      </c>
+      <c r="D249" s="17">
+        <v>1</v>
+      </c>
+      <c r="E249" s="97" t="s">
+        <v>488</v>
+      </c>
+      <c r="F249" s="97"/>
+      <c r="G249" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="H249" s="97" t="s">
+        <v>493</v>
+      </c>
       <c r="I249" s="72" t="s">
         <v>29</v>
       </c>
@@ -12375,10 +12368,10 @@
     </row>
     <row r="250" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="97" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B250" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C250" s="77" t="s">
         <v>570</v>
@@ -12387,14 +12380,12 @@
         <v>1</v>
       </c>
       <c r="E250" s="97" t="s">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="F250" s="97"/>
-      <c r="G250" s="17" t="s">
-        <v>571</v>
-      </c>
+      <c r="G250" s="17"/>
       <c r="H250" s="97" t="s">
-        <v>493</v>
+        <v>64</v>
       </c>
       <c r="I250" s="72" t="s">
         <v>29</v>
@@ -12411,13 +12402,13 @@
     </row>
     <row r="251" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="B251" s="77" t="s">
+        <v>566</v>
+      </c>
+      <c r="C251" s="77" t="s">
         <v>572</v>
-      </c>
-      <c r="B251" s="77" t="s">
-        <v>569</v>
-      </c>
-      <c r="C251" s="77" t="s">
-        <v>573</v>
       </c>
       <c r="D251" s="17">
         <v>1</v>
@@ -12425,8 +12416,10 @@
       <c r="E251" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="F251" s="97"/>
-      <c r="G251" s="17"/>
+      <c r="F251" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="G251" s="57"/>
       <c r="H251" s="97" t="s">
         <v>64</v>
       </c>
@@ -12448,7 +12441,7 @@
         <v>574</v>
       </c>
       <c r="B252" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C252" s="77" t="s">
         <v>575</v>
@@ -12457,14 +12450,16 @@
         <v>1</v>
       </c>
       <c r="E252" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="F252" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="G252" s="57"/>
+      <c r="F252" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="G252" s="17">
+        <v>10</v>
+      </c>
       <c r="H252" s="97" t="s">
-        <v>64</v>
+        <v>578</v>
       </c>
       <c r="I252" s="72" t="s">
         <v>29</v>
@@ -12481,26 +12476,22 @@
     </row>
     <row r="253" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="97" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B253" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C253" s="77" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D253" s="17">
         <v>1</v>
       </c>
       <c r="E253" s="97" t="s">
-        <v>579</v>
-      </c>
-      <c r="F253" s="97" t="s">
-        <v>580</v>
-      </c>
-      <c r="G253" s="17">
-        <v>10</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F253" s="97"/>
+      <c r="G253" s="17"/>
       <c r="H253" s="97" t="s">
         <v>581</v>
       </c>
@@ -12522,21 +12513,25 @@
         <v>582</v>
       </c>
       <c r="B254" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C254" s="77" t="s">
         <v>583</v>
       </c>
       <c r="D254" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E254" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="F254" s="97"/>
-      <c r="G254" s="17"/>
+        <v>488</v>
+      </c>
+      <c r="F254" s="97" t="s">
+        <v>584</v>
+      </c>
+      <c r="G254" s="17">
+        <v>100</v>
+      </c>
       <c r="H254" s="97" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I254" s="72" t="s">
         <v>29</v>
@@ -12553,28 +12548,28 @@
     </row>
     <row r="255" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="97" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B255" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C255" s="77" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D255" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E255" s="97" t="s">
         <v>488</v>
       </c>
       <c r="F255" s="97" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G255" s="17">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H255" s="97" t="s">
-        <v>588</v>
+        <v>58</v>
       </c>
       <c r="I255" s="72" t="s">
         <v>29</v>
@@ -12594,7 +12589,7 @@
         <v>589</v>
       </c>
       <c r="B256" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C256" s="77" t="s">
         <v>590</v>
@@ -12603,16 +12598,14 @@
         <v>1</v>
       </c>
       <c r="E256" s="97" t="s">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="F256" s="97" t="s">
         <v>591</v>
       </c>
-      <c r="G256" s="17">
-        <v>1000</v>
-      </c>
+      <c r="G256" s="17"/>
       <c r="H256" s="97" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I256" s="72" t="s">
         <v>29</v>
@@ -12632,7 +12625,7 @@
         <v>592</v>
       </c>
       <c r="B257" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C257" s="77" t="s">
         <v>593</v>
@@ -12646,9 +12639,11 @@
       <c r="F257" s="97" t="s">
         <v>594</v>
       </c>
-      <c r="G257" s="17"/>
+      <c r="G257" s="17">
+        <v>10</v>
+      </c>
       <c r="H257" s="97" t="s">
-        <v>64</v>
+        <v>595</v>
       </c>
       <c r="I257" s="72" t="s">
         <v>29</v>
@@ -12665,13 +12660,13 @@
     </row>
     <row r="258" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="97" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B258" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C258" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D258" s="17">
         <v>1</v>
@@ -12680,13 +12675,13 @@
         <v>62</v>
       </c>
       <c r="F258" s="97" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G258" s="17">
         <v>10</v>
       </c>
       <c r="H258" s="97" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I258" s="72" t="s">
         <v>29</v>
@@ -12703,13 +12698,13 @@
     </row>
     <row r="259" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="97" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B259" s="77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C259" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D259" s="17">
         <v>1</v>
@@ -12718,13 +12713,13 @@
         <v>62</v>
       </c>
       <c r="F259" s="97" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G259" s="17">
         <v>10</v>
       </c>
       <c r="H259" s="97" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I259" s="72" t="s">
         <v>29</v>
@@ -12738,44 +12733,6 @@
       <c r="N259" s="17"/>
       <c r="O259" s="17"/>
       <c r="P259" s="17"/>
-    </row>
-    <row r="260" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="97" t="s">
-        <v>600</v>
-      </c>
-      <c r="B260" s="77" t="s">
-        <v>569</v>
-      </c>
-      <c r="C260" s="77" t="s">
-        <v>596</v>
-      </c>
-      <c r="D260" s="17">
-        <v>1</v>
-      </c>
-      <c r="E260" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="F260" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="G260" s="17">
-        <v>10</v>
-      </c>
-      <c r="H260" s="97" t="s">
-        <v>598</v>
-      </c>
-      <c r="I260" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J260" s="73"/>
-      <c r="K260" s="74"/>
-      <c r="L260" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="M260" s="17"/>
-      <c r="N260" s="17"/>
-      <c r="O260" s="17"/>
-      <c r="P260" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/signal_map/signalmap_safestrip_interfaces_v5.0.xlsx
+++ b/signal_map/signalmap_safestrip_interfaces_v5.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giammarco/GoogleDriveUNITN/PHDxxx/Projects/SAFESTRIP/MQTT_for_safestrip/signal_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A3DB7-DA21-974A-A077-017C1D0E0FA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B216A8A8-BB8C-F64F-94AD-F49131F45663}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2480" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{FBF927E7-8919-754A-9B9B-553D825B3903}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="602">
   <si>
     <t>version:5.0</t>
   </si>
@@ -1828,6 +1828,15 @@
   </si>
   <si>
     <t>HMIinputsByApp/#{OutputID}</t>
+  </si>
+  <si>
+    <t>Lane_ID</t>
+  </si>
+  <si>
+    <t>Id of the lane in the intersection (VERY IMPORTANT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This number depends on the lanes coded in the intersection, refer to the map </t>
   </si>
 </sst>
 </file>
@@ -3053,11 +3062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EC5FC3-03DD-9345-8521-B8CE154A93B9}">
-  <dimension ref="A1:P259"/>
+  <dimension ref="A1:P260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A225" sqref="A225:XFD225"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6838,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>137</v>
@@ -6867,23 +6876,27 @@
       </c>
     </row>
     <row r="94" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="B94" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="J94" s="14"/>
-      <c r="K94" s="47"/>
+      <c r="A94" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D94" s="23">
+        <v>1</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" s="37"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="21"/>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
@@ -6891,65 +6904,57 @@
       <c r="P94" s="17"/>
     </row>
     <row r="95" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J95" s="20"/>
-      <c r="K95" s="21"/>
+      <c r="A95" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" s="30"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="J95" s="14"/>
+      <c r="K95" s="47"/>
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>
-      <c r="N95" s="57"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="17"/>
       <c r="P95" s="17"/>
     </row>
     <row r="96" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D96" s="23">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="G96" s="36"/>
+        <v>27</v>
+      </c>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H96" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I96" s="19"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="20"/>
+      <c r="K96" s="21"/>
       <c r="L96" s="17"/>
       <c r="M96" s="17"/>
       <c r="N96" s="57"/>
@@ -6957,98 +6962,88 @@
       <c r="P96" s="17"/>
     </row>
     <row r="97" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="B97" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="47"/>
+      <c r="A97" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D97" s="23">
+        <v>1</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G97" s="36"/>
+      <c r="H97" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I97" s="19"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="28"/>
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
+      <c r="N97" s="57"/>
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
     </row>
     <row r="98" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I98" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J98" s="20"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M98" s="17" t="s">
-        <v>284</v>
-      </c>
+      <c r="A98" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="30"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="14"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
       <c r="N98" s="17"/>
       <c r="O98" s="17"/>
-      <c r="P98" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="P98" s="17"/>
     </row>
     <row r="99" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D99" s="36">
-        <v>1</v>
-      </c>
-      <c r="E99" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F99" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G99" s="41"/>
+      <c r="A99" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H99" s="18" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J99" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="J99" s="20"/>
       <c r="K99" s="21"/>
       <c r="L99" s="17" t="s">
         <v>73</v>
@@ -7064,15 +7059,15 @@
     </row>
     <row r="100" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="35" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="23">
+        <v>78</v>
+      </c>
+      <c r="D100" s="36">
         <v>1</v>
       </c>
       <c r="E100" s="37" t="s">
@@ -7081,7 +7076,7 @@
       <c r="F100" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G100" s="36"/>
+      <c r="G100" s="41"/>
       <c r="H100" s="18" t="s">
         <v>64</v>
       </c>
@@ -7106,22 +7101,22 @@
     </row>
     <row r="101" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="35" t="s">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="D101" s="23">
         <v>1</v>
       </c>
-      <c r="E101" s="18" t="s">
-        <v>93</v>
+      <c r="E101" s="37" t="s">
+        <v>79</v>
       </c>
       <c r="F101" s="37" t="s">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="G101" s="36"/>
       <c r="H101" s="18" t="s">
@@ -7133,7 +7128,7 @@
       <c r="J101" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K101" s="28"/>
+      <c r="K101" s="21"/>
       <c r="L101" s="17" t="s">
         <v>73</v>
       </c>
@@ -7148,22 +7143,22 @@
     </row>
     <row r="102" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="35" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D102" s="23">
         <v>1</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F102" s="37" t="s">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="G102" s="36"/>
       <c r="H102" s="18" t="s">
@@ -7190,28 +7185,26 @@
     </row>
     <row r="103" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="D103" s="23">
         <v>1</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F103" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="G103" s="36">
-        <v>10000</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G103" s="36"/>
       <c r="H103" s="18" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I103" s="19" t="s">
         <v>29</v>
@@ -7234,13 +7227,13 @@
     </row>
     <row r="104" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D104" s="23">
         <v>1</v>
@@ -7249,7 +7242,7 @@
         <v>66</v>
       </c>
       <c r="F104" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G104" s="36">
         <v>10000</v>
@@ -7278,13 +7271,13 @@
     </row>
     <row r="105" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="D105" s="23">
         <v>1</v>
@@ -7293,13 +7286,13 @@
         <v>66</v>
       </c>
       <c r="F105" s="37" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="G105" s="36">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="I105" s="19" t="s">
         <v>29</v>
@@ -7322,13 +7315,13 @@
     </row>
     <row r="106" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D106" s="23">
         <v>1</v>
@@ -7337,10 +7330,10 @@
         <v>66</v>
       </c>
       <c r="F106" s="37" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G106" s="36">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>70</v>
@@ -7366,26 +7359,28 @@
     </row>
     <row r="107" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="35" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D107" s="23">
         <v>1</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F107" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="G107" s="36"/>
+        <v>304</v>
+      </c>
+      <c r="G107" s="36">
+        <v>100</v>
+      </c>
       <c r="H107" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>29</v>
@@ -7408,28 +7403,26 @@
     </row>
     <row r="108" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="35" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D108" s="23">
         <v>1</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F108" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="G108" s="36">
-        <v>50</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G108" s="36"/>
       <c r="H108" s="18" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I108" s="19" t="s">
         <v>29</v>
@@ -7452,26 +7445,28 @@
     </row>
     <row r="109" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D109" s="23">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F109" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G109" s="36"/>
+        <v>312</v>
+      </c>
+      <c r="G109" s="36">
+        <v>50</v>
+      </c>
       <c r="H109" s="18" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="I109" s="19" t="s">
         <v>29</v>
@@ -7494,13 +7489,13 @@
     </row>
     <row r="110" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D110" s="23">
         <v>16</v>
@@ -7508,10 +7503,10 @@
       <c r="E110" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F110" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="G110" s="23"/>
+      <c r="F110" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G110" s="36"/>
       <c r="H110" s="18" t="s">
         <v>64</v>
       </c>
@@ -7536,13 +7531,13 @@
     </row>
     <row r="111" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="35" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D111" s="23">
         <v>16</v>
@@ -7550,10 +7545,10 @@
       <c r="E111" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F111" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="G111" s="36"/>
+      <c r="F111" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G111" s="23"/>
       <c r="H111" s="18" t="s">
         <v>64</v>
       </c>
@@ -7578,28 +7573,26 @@
     </row>
     <row r="112" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="35" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C112" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D112" s="23">
+        <v>16</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F112" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G112" s="36"/>
+      <c r="H112" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="D112" s="23">
-        <v>160</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="G112" s="23">
-        <v>100</v>
-      </c>
-      <c r="H112" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="I112" s="19" t="s">
         <v>29</v>
@@ -7622,10 +7615,10 @@
     </row>
     <row r="113" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C113" s="22" t="s">
         <v>64</v>
@@ -7666,26 +7659,28 @@
     </row>
     <row r="114" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="D114" s="23">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F114" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="G114" s="36"/>
+        <v>66</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="G114" s="23">
+        <v>100</v>
+      </c>
       <c r="H114" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I114" s="19" t="s">
         <v>29</v>
@@ -7708,22 +7703,22 @@
     </row>
     <row r="115" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="35" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>331</v>
       </c>
       <c r="D115" s="23">
         <v>16</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F115" s="37" t="s">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="G115" s="36"/>
       <c r="H115" s="18" t="s">
@@ -7750,22 +7745,22 @@
     </row>
     <row r="116" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="35" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D116" s="23">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F116" s="37" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="G116" s="36"/>
       <c r="H116" s="18" t="s">
@@ -7792,24 +7787,24 @@
     </row>
     <row r="117" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="35" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D117" s="23">
         <v>96</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F117" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="G117" s="23"/>
+        <v>87</v>
+      </c>
+      <c r="F117" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G117" s="36"/>
       <c r="H117" s="18" t="s">
         <v>64</v>
       </c>
@@ -7834,13 +7829,13 @@
     </row>
     <row r="118" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D118" s="23">
         <v>96</v>
@@ -7858,7 +7853,9 @@
       <c r="I118" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J118" s="27"/>
+      <c r="J118" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="K118" s="28"/>
       <c r="L118" s="17" t="s">
         <v>73</v>
@@ -7873,51 +7870,71 @@
       </c>
     </row>
     <row r="119" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>343</v>
+      <c r="A119" s="35" t="s">
+        <v>340</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D119" s="23">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F119" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="G119" s="36"/>
+        <v>93</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G119" s="23"/>
       <c r="H119" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I119" s="19"/>
+      <c r="I119" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="J119" s="27"/>
       <c r="K119" s="28"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
+      <c r="L119" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M119" s="17" t="s">
+        <v>284</v>
+      </c>
       <c r="N119" s="17"/>
       <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
+      <c r="P119" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="120" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="130" t="s">
-        <v>353</v>
-      </c>
-      <c r="B120" s="131"/>
-      <c r="C120" s="131"/>
-      <c r="D120" s="131"/>
-      <c r="E120" s="131"/>
-      <c r="F120" s="131"/>
-      <c r="G120" s="131"/>
-      <c r="H120" s="131"/>
-      <c r="I120" s="131"/>
-      <c r="J120" s="131"/>
-      <c r="K120" s="131"/>
+      <c r="A120" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" s="23">
+        <v>1</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G120" s="36"/>
+      <c r="H120" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I120" s="19"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="28"/>
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
@@ -7925,23 +7942,19 @@
       <c r="P120" s="17"/>
     </row>
     <row r="121" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="B121" s="59" t="s">
-        <v>354</v>
-      </c>
-      <c r="C121" s="61"/>
-      <c r="D121" s="62"/>
-      <c r="E121" s="63"/>
-      <c r="F121" s="63"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="63"/>
-      <c r="I121" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" s="65"/>
-      <c r="K121" s="66"/>
+      <c r="A121" s="130" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" s="131"/>
+      <c r="C121" s="131"/>
+      <c r="D121" s="131"/>
+      <c r="E121" s="131"/>
+      <c r="F121" s="131"/>
+      <c r="G121" s="131"/>
+      <c r="H121" s="131"/>
+      <c r="I121" s="131"/>
+      <c r="J121" s="131"/>
+      <c r="K121" s="131"/>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
@@ -7949,46 +7962,38 @@
       <c r="P121" s="17"/>
     </row>
     <row r="122" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C122" s="77" t="s">
-        <v>348</v>
-      </c>
-      <c r="D122" s="78">
-        <v>1</v>
-      </c>
-      <c r="E122" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F122" s="75"/>
-      <c r="G122" s="78"/>
-      <c r="H122" s="75"/>
-      <c r="I122" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J122" s="73"/>
-      <c r="K122" s="74"/>
+      <c r="A122" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" s="61"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="63"/>
+      <c r="I122" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="65"/>
+      <c r="K122" s="66"/>
       <c r="L122" s="17"/>
       <c r="M122" s="17"/>
-      <c r="N122" s="17" t="s">
-        <v>355</v>
-      </c>
+      <c r="N122" s="17"/>
       <c r="O122" s="17"/>
       <c r="P122" s="17"/>
     </row>
     <row r="123" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="75" t="s">
-        <v>356</v>
+        <v>23</v>
       </c>
       <c r="B123" s="76" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C123" s="77" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D123" s="78">
         <v>1</v>
@@ -8013,93 +8018,89 @@
       <c r="P123" s="17"/>
     </row>
     <row r="124" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="B124" s="60" t="s">
-        <v>360</v>
-      </c>
-      <c r="C124" s="61"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J124" s="65"/>
-      <c r="K124" s="66"/>
+      <c r="A124" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="B124" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124" s="78">
+        <v>1</v>
+      </c>
+      <c r="E124" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F124" s="75"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="75"/>
+      <c r="I124" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J124" s="73"/>
+      <c r="K124" s="74"/>
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
+      <c r="N124" s="17" t="s">
+        <v>355</v>
+      </c>
       <c r="O124" s="17"/>
       <c r="P124" s="17"/>
     </row>
     <row r="125" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H125" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I125" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J125" s="20"/>
-      <c r="K125" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="A125" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="B125" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="C125" s="61"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="63"/>
+      <c r="I125" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="65"/>
+      <c r="K125" s="66"/>
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>
-      <c r="N125" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O125" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
       <c r="P125" s="17"/>
     </row>
     <row r="126" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B126" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C126" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D126" s="78">
-        <v>1</v>
-      </c>
-      <c r="E126" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F126" s="75"/>
-      <c r="G126" s="78"/>
-      <c r="H126" s="75"/>
-      <c r="I126" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J126" s="73"/>
-      <c r="K126" s="74" t="s">
+      <c r="A126" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I126" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J126" s="20"/>
+      <c r="K126" s="21" t="s">
         <v>29</v>
       </c>
       <c r="L126" s="17"/>
@@ -8114,13 +8115,13 @@
     </row>
     <row r="127" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="75" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B127" s="76" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C127" s="79" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D127" s="78">
         <v>1</v>
@@ -8150,27 +8151,23 @@
     </row>
     <row r="128" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="75" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B128" s="76" t="s">
-        <v>350</v>
-      </c>
-      <c r="C128" s="76" t="s">
-        <v>351</v>
-      </c>
-      <c r="D128" s="80">
+        <v>362</v>
+      </c>
+      <c r="C128" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="D128" s="78">
         <v>1</v>
       </c>
       <c r="E128" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F128" s="75" t="s">
-        <v>352</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F128" s="75"/>
       <c r="G128" s="78"/>
-      <c r="H128" s="81" t="s">
-        <v>64</v>
-      </c>
+      <c r="H128" s="75"/>
       <c r="I128" s="72" t="s">
         <v>29</v>
       </c>
@@ -8189,27 +8186,27 @@
       <c r="P128" s="17"/>
     </row>
     <row r="129" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="B129" s="83" t="s">
-        <v>365</v>
-      </c>
-      <c r="C129" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="D129" s="84">
-        <v>1</v>
-      </c>
-      <c r="E129" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="F129" s="82"/>
-      <c r="G129" s="84">
-        <v>1</v>
-      </c>
-      <c r="H129" s="82" t="s">
-        <v>367</v>
+      <c r="A129" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="B129" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="D129" s="80">
+        <v>1</v>
+      </c>
+      <c r="E129" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F129" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="G129" s="78"/>
+      <c r="H129" s="81" t="s">
+        <v>64</v>
       </c>
       <c r="I129" s="72" t="s">
         <v>29</v>
@@ -8229,27 +8226,27 @@
       <c r="P129" s="17"/>
     </row>
     <row r="130" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="B130" s="76" t="s">
-        <v>369</v>
-      </c>
-      <c r="C130" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="D130" s="78">
-        <v>1</v>
-      </c>
-      <c r="E130" s="75" t="s">
+      <c r="A130" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B130" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="D130" s="84">
+        <v>1</v>
+      </c>
+      <c r="E130" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="F130" s="75"/>
-      <c r="G130" s="78">
-        <v>1</v>
-      </c>
-      <c r="H130" s="75" t="s">
-        <v>70</v>
+      <c r="F130" s="82"/>
+      <c r="G130" s="84">
+        <v>1</v>
+      </c>
+      <c r="H130" s="82" t="s">
+        <v>367</v>
       </c>
       <c r="I130" s="72" t="s">
         <v>29</v>
@@ -8270,13 +8267,13 @@
     </row>
     <row r="131" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="75" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B131" s="76" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C131" s="76" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D131" s="78">
         <v>1</v>
@@ -8310,26 +8307,26 @@
     </row>
     <row r="132" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="75" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C132" s="76" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D132" s="78">
         <v>1</v>
       </c>
       <c r="E132" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F132" s="75" t="s">
-        <v>377</v>
-      </c>
-      <c r="G132" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="F132" s="75"/>
+      <c r="G132" s="78">
+        <v>1</v>
+      </c>
       <c r="H132" s="75" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I132" s="72" t="s">
         <v>29</v>
@@ -8350,21 +8347,23 @@
     </row>
     <row r="133" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="75" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C133" s="76" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D133" s="78">
         <v>1</v>
       </c>
       <c r="E133" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F133" s="75"/>
+        <v>66</v>
+      </c>
+      <c r="F133" s="75" t="s">
+        <v>377</v>
+      </c>
       <c r="G133" s="78"/>
       <c r="H133" s="75" t="s">
         <v>64</v>
@@ -8387,43 +8386,57 @@
       <c r="P133" s="17"/>
     </row>
     <row r="134" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="132" t="s">
-        <v>381</v>
-      </c>
-      <c r="B134" s="133"/>
-      <c r="C134" s="133"/>
-      <c r="D134" s="133"/>
-      <c r="E134" s="133"/>
-      <c r="F134" s="133"/>
-      <c r="G134" s="133"/>
-      <c r="H134" s="133"/>
-      <c r="I134" s="133"/>
-      <c r="J134" s="133"/>
-      <c r="K134" s="134"/>
+      <c r="A134" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="B134" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C134" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="D134" s="78">
+        <v>1</v>
+      </c>
+      <c r="E134" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F134" s="75"/>
+      <c r="G134" s="78"/>
+      <c r="H134" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I134" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J134" s="73"/>
+      <c r="K134" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="L134" s="17"/>
       <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
+      <c r="N134" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O134" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="P134" s="17"/>
     </row>
     <row r="135" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="B135" s="60" t="s">
-        <v>598</v>
-      </c>
-      <c r="C135" s="61"/>
-      <c r="D135" s="62"/>
-      <c r="E135" s="63"/>
-      <c r="F135" s="63"/>
-      <c r="G135" s="62"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J135" s="65"/>
-      <c r="K135" s="66"/>
+      <c r="A135" s="132" t="s">
+        <v>381</v>
+      </c>
+      <c r="B135" s="133"/>
+      <c r="C135" s="133"/>
+      <c r="D135" s="133"/>
+      <c r="E135" s="133"/>
+      <c r="F135" s="133"/>
+      <c r="G135" s="133"/>
+      <c r="H135" s="133"/>
+      <c r="I135" s="133"/>
+      <c r="J135" s="133"/>
+      <c r="K135" s="134"/>
       <c r="L135" s="17"/>
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
@@ -8431,69 +8444,57 @@
       <c r="P135" s="17"/>
     </row>
     <row r="136" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D136" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E136" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I136" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J136" s="20"/>
-      <c r="K136" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="A136" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="B136" s="60" t="s">
+        <v>598</v>
+      </c>
+      <c r="C136" s="61"/>
+      <c r="D136" s="62"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="62"/>
+      <c r="H136" s="63"/>
+      <c r="I136" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="65"/>
+      <c r="K136" s="66"/>
       <c r="L136" s="17"/>
       <c r="M136" s="17"/>
-      <c r="N136" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="N136" s="17"/>
       <c r="O136" s="17"/>
-      <c r="P136" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="P136" s="17"/>
     </row>
     <row r="137" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B137" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C137" s="77" t="s">
-        <v>348</v>
-      </c>
-      <c r="D137" s="78">
-        <v>1</v>
-      </c>
-      <c r="E137" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F137" s="75"/>
-      <c r="G137" s="78"/>
-      <c r="H137" s="75"/>
-      <c r="I137" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J137" s="73"/>
-      <c r="K137" s="74" t="s">
+      <c r="A137" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I137" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J137" s="20"/>
+      <c r="K137" s="21" t="s">
         <v>29</v>
       </c>
       <c r="L137" s="17"/>
@@ -8508,13 +8509,13 @@
     </row>
     <row r="138" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="75" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B138" s="76" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C138" s="77" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D138" s="78">
         <v>1</v>
@@ -8544,27 +8545,23 @@
     </row>
     <row r="139" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="75" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B139" s="76" t="s">
-        <v>350</v>
-      </c>
-      <c r="C139" s="76" t="s">
-        <v>351</v>
-      </c>
-      <c r="D139" s="80">
+        <v>362</v>
+      </c>
+      <c r="C139" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="D139" s="78">
         <v>1</v>
       </c>
       <c r="E139" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F139" s="75" t="s">
-        <v>352</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F139" s="75"/>
       <c r="G139" s="78"/>
-      <c r="H139" s="81" t="s">
-        <v>64</v>
-      </c>
+      <c r="H139" s="75"/>
       <c r="I139" s="72" t="s">
         <v>29</v>
       </c>
@@ -8583,27 +8580,27 @@
       </c>
     </row>
     <row r="140" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="B140" s="83" t="s">
-        <v>365</v>
-      </c>
-      <c r="C140" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="D140" s="84">
-        <v>1</v>
-      </c>
-      <c r="E140" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="F140" s="82"/>
-      <c r="G140" s="84">
-        <v>1</v>
-      </c>
-      <c r="H140" s="82" t="s">
-        <v>367</v>
+      <c r="A140" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C140" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="D140" s="80">
+        <v>1</v>
+      </c>
+      <c r="E140" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F140" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="G140" s="78"/>
+      <c r="H140" s="81" t="s">
+        <v>64</v>
       </c>
       <c r="I140" s="72" t="s">
         <v>29</v>
@@ -8623,27 +8620,27 @@
       </c>
     </row>
     <row r="141" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="B141" s="76" t="s">
-        <v>369</v>
-      </c>
-      <c r="C141" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="D141" s="78">
-        <v>1</v>
-      </c>
-      <c r="E141" s="75" t="s">
+      <c r="A141" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B141" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="C141" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="D141" s="84">
+        <v>1</v>
+      </c>
+      <c r="E141" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="F141" s="75"/>
-      <c r="G141" s="78">
-        <v>1</v>
-      </c>
-      <c r="H141" s="75" t="s">
-        <v>70</v>
+      <c r="F141" s="82"/>
+      <c r="G141" s="84">
+        <v>1</v>
+      </c>
+      <c r="H141" s="82" t="s">
+        <v>367</v>
       </c>
       <c r="I141" s="72" t="s">
         <v>29</v>
@@ -8664,13 +8661,13 @@
     </row>
     <row r="142" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="75" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B142" s="76" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C142" s="76" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D142" s="78">
         <v>1</v>
@@ -8704,26 +8701,26 @@
     </row>
     <row r="143" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="75" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B143" s="76" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C143" s="76" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D143" s="78">
         <v>1</v>
       </c>
       <c r="E143" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F143" s="75" t="s">
-        <v>377</v>
-      </c>
-      <c r="G143" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="F143" s="75"/>
+      <c r="G143" s="78">
+        <v>1</v>
+      </c>
       <c r="H143" s="75" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I143" s="72" t="s">
         <v>29</v>
@@ -8744,21 +8741,23 @@
     </row>
     <row r="144" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="75" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B144" s="76" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C144" s="76" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D144" s="78">
         <v>1</v>
       </c>
       <c r="E144" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F144" s="75"/>
+        <v>66</v>
+      </c>
+      <c r="F144" s="75" t="s">
+        <v>377</v>
+      </c>
       <c r="G144" s="78"/>
       <c r="H144" s="75" t="s">
         <v>64</v>
@@ -8781,43 +8780,57 @@
       </c>
     </row>
     <row r="145" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="118" t="s">
-        <v>384</v>
-      </c>
-      <c r="B145" s="119"/>
-      <c r="C145" s="119"/>
-      <c r="D145" s="119"/>
-      <c r="E145" s="119"/>
-      <c r="F145" s="119"/>
-      <c r="G145" s="119"/>
-      <c r="H145" s="119"/>
-      <c r="I145" s="119"/>
-      <c r="J145" s="119"/>
-      <c r="K145" s="119"/>
+      <c r="A145" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="B145" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C145" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="D145" s="78">
+        <v>1</v>
+      </c>
+      <c r="E145" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" s="75"/>
+      <c r="G145" s="78"/>
+      <c r="H145" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I145" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J145" s="73"/>
+      <c r="K145" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="L145" s="17"/>
       <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
+      <c r="N145" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
+      <c r="P145" s="17" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="146" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="59" t="s">
-        <v>385</v>
-      </c>
-      <c r="B146" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="C146" s="61"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="62"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="J146" s="65"/>
-      <c r="K146" s="66"/>
+      <c r="A146" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="B146" s="119"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
+      <c r="F146" s="119"/>
+      <c r="G146" s="119"/>
+      <c r="H146" s="119"/>
+      <c r="I146" s="119"/>
+      <c r="J146" s="119"/>
+      <c r="K146" s="119"/>
       <c r="L146" s="17"/>
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
@@ -8825,33 +8838,23 @@
       <c r="P146" s="17"/>
     </row>
     <row r="147" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E147" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H147" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I147" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J147" s="20"/>
-      <c r="K147" s="21"/>
+      <c r="A147" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="B147" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="61"/>
+      <c r="D147" s="62"/>
+      <c r="E147" s="63"/>
+      <c r="F147" s="63"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="63"/>
+      <c r="I147" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="J147" s="65"/>
+      <c r="K147" s="66"/>
       <c r="L147" s="17"/>
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
@@ -8859,29 +8862,33 @@
       <c r="P147" s="17"/>
     </row>
     <row r="148" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B148" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C148" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D148" s="78">
-        <v>1</v>
-      </c>
-      <c r="E148" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F148" s="75"/>
-      <c r="G148" s="78"/>
-      <c r="H148" s="75"/>
-      <c r="I148" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J148" s="73"/>
-      <c r="K148" s="74"/>
+      <c r="A148" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J148" s="20"/>
+      <c r="K148" s="21"/>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
@@ -8890,34 +8897,28 @@
     </row>
     <row r="149" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="75" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B149" s="76" t="s">
-        <v>350</v>
-      </c>
-      <c r="C149" s="76" t="s">
-        <v>351</v>
-      </c>
-      <c r="D149" s="80">
+        <v>347</v>
+      </c>
+      <c r="C149" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D149" s="78">
         <v>1</v>
       </c>
       <c r="E149" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F149" s="75" t="s">
-        <v>352</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F149" s="75"/>
       <c r="G149" s="78"/>
-      <c r="H149" s="81" t="s">
-        <v>64</v>
-      </c>
+      <c r="H149" s="75"/>
       <c r="I149" s="72" t="s">
         <v>29</v>
       </c>
       <c r="J149" s="73"/>
-      <c r="K149" s="74" t="s">
-        <v>29</v>
-      </c>
+      <c r="K149" s="74"/>
       <c r="L149" s="17"/>
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
@@ -8926,23 +8927,25 @@
     </row>
     <row r="150" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="75" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="B150" s="76" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="C150" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="D150" s="78">
+        <v>351</v>
+      </c>
+      <c r="D150" s="80">
         <v>1</v>
       </c>
       <c r="E150" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F150" s="75"/>
+        <v>62</v>
+      </c>
+      <c r="F150" s="75" t="s">
+        <v>352</v>
+      </c>
       <c r="G150" s="78"/>
-      <c r="H150" s="75" t="s">
+      <c r="H150" s="81" t="s">
         <v>64</v>
       </c>
       <c r="I150" s="72" t="s">
@@ -8960,13 +8963,13 @@
     </row>
     <row r="151" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="75" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B151" s="76" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C151" s="76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D151" s="78">
         <v>1</v>
@@ -8974,9 +8977,7 @@
       <c r="E151" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F151" s="75" t="s">
-        <v>377</v>
-      </c>
+      <c r="F151" s="75"/>
       <c r="G151" s="78"/>
       <c r="H151" s="75" t="s">
         <v>64</v>
@@ -8996,21 +8997,23 @@
     </row>
     <row r="152" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="75" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B152" s="76" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C152" s="76" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D152" s="78">
         <v>1</v>
       </c>
       <c r="E152" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="F152" s="75"/>
+        <v>66</v>
+      </c>
+      <c r="F152" s="75" t="s">
+        <v>377</v>
+      </c>
       <c r="G152" s="78"/>
       <c r="H152" s="75" t="s">
         <v>64</v>
@@ -9030,26 +9033,24 @@
     </row>
     <row r="153" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="75" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B153" s="76" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C153" s="76" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D153" s="78">
         <v>1</v>
       </c>
       <c r="E153" s="75" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F153" s="75"/>
-      <c r="G153" s="78">
-        <v>1</v>
-      </c>
+      <c r="G153" s="78"/>
       <c r="H153" s="75" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I153" s="72" t="s">
         <v>29</v>
@@ -9066,10 +9067,10 @@
     </row>
     <row r="154" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="75" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B154" s="76" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C154" s="76" t="s">
         <v>393</v>
@@ -9102,13 +9103,13 @@
     </row>
     <row r="155" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="75" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="B155" s="76" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="C155" s="76" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D155" s="78">
         <v>1</v>
@@ -9138,12 +9139,14 @@
     </row>
     <row r="156" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="75" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="B156" s="76" t="s">
-        <v>397</v>
-      </c>
-      <c r="C156" s="76"/>
+        <v>369</v>
+      </c>
+      <c r="C156" s="76" t="s">
+        <v>370</v>
+      </c>
       <c r="D156" s="78">
         <v>1</v>
       </c>
@@ -9172,10 +9175,10 @@
     </row>
     <row r="157" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="75" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B157" s="76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C157" s="76"/>
       <c r="D157" s="78">
@@ -9206,14 +9209,12 @@
     </row>
     <row r="158" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="75" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="B158" s="76" t="s">
-        <v>400</v>
-      </c>
-      <c r="C158" s="76" t="s">
-        <v>401</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C158" s="76"/>
       <c r="D158" s="78">
         <v>1</v>
       </c>
@@ -9242,16 +9243,16 @@
     </row>
     <row r="159" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="75" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="B159" s="76" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C159" s="76" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D159" s="78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E159" s="75" t="s">
         <v>34</v>
@@ -9261,7 +9262,7 @@
         <v>1</v>
       </c>
       <c r="H159" s="75" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I159" s="72" t="s">
         <v>29</v>
@@ -9277,19 +9278,35 @@
       <c r="P159" s="17"/>
     </row>
     <row r="160" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="118" t="s">
-        <v>405</v>
-      </c>
-      <c r="B160" s="119"/>
-      <c r="C160" s="119"/>
-      <c r="D160" s="119"/>
-      <c r="E160" s="119"/>
-      <c r="F160" s="119"/>
-      <c r="G160" s="119"/>
-      <c r="H160" s="119"/>
-      <c r="I160" s="119"/>
-      <c r="J160" s="119"/>
-      <c r="K160" s="119"/>
+      <c r="A160" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="B160" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="C160" s="76" t="s">
+        <v>404</v>
+      </c>
+      <c r="D160" s="78">
+        <v>4</v>
+      </c>
+      <c r="E160" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160" s="75"/>
+      <c r="G160" s="78">
+        <v>1</v>
+      </c>
+      <c r="H160" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="I160" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J160" s="73"/>
+      <c r="K160" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="L160" s="17"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
@@ -9297,23 +9314,19 @@
       <c r="P160" s="17"/>
     </row>
     <row r="161" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="59" t="s">
-        <v>406</v>
-      </c>
-      <c r="B161" s="59" t="s">
-        <v>407</v>
-      </c>
-      <c r="C161" s="85"/>
-      <c r="D161" s="86"/>
-      <c r="E161" s="87"/>
-      <c r="F161" s="87"/>
-      <c r="G161" s="86"/>
-      <c r="H161" s="63"/>
-      <c r="I161" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J161" s="65"/>
-      <c r="K161" s="66"/>
+      <c r="A161" s="118" t="s">
+        <v>405</v>
+      </c>
+      <c r="B161" s="119"/>
+      <c r="C161" s="119"/>
+      <c r="D161" s="119"/>
+      <c r="E161" s="119"/>
+      <c r="F161" s="119"/>
+      <c r="G161" s="119"/>
+      <c r="H161" s="119"/>
+      <c r="I161" s="119"/>
+      <c r="J161" s="119"/>
+      <c r="K161" s="119"/>
       <c r="L161" s="17"/>
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
@@ -9321,33 +9334,23 @@
       <c r="P161" s="17"/>
     </row>
     <row r="162" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H162" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I162" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J162" s="20"/>
-      <c r="K162" s="21"/>
+      <c r="A162" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="B162" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="C162" s="85"/>
+      <c r="D162" s="86"/>
+      <c r="E162" s="87"/>
+      <c r="F162" s="87"/>
+      <c r="G162" s="86"/>
+      <c r="H162" s="63"/>
+      <c r="I162" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J162" s="65"/>
+      <c r="K162" s="66"/>
       <c r="L162" s="17"/>
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
@@ -9355,29 +9358,33 @@
       <c r="P162" s="17"/>
     </row>
     <row r="163" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="82" t="s">
-        <v>346</v>
-      </c>
-      <c r="B163" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C163" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D163" s="88">
-        <v>1</v>
-      </c>
-      <c r="E163" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F163" s="82"/>
-      <c r="G163" s="84"/>
-      <c r="H163" s="82"/>
-      <c r="I163" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J163" s="73"/>
-      <c r="K163" s="74"/>
+      <c r="A163" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I163" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J163" s="20"/>
+      <c r="K163" s="21"/>
       <c r="L163" s="17"/>
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
@@ -9386,34 +9393,28 @@
     </row>
     <row r="164" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="B164" s="83" t="s">
-        <v>409</v>
-      </c>
-      <c r="C164" s="83" t="s">
-        <v>410</v>
-      </c>
-      <c r="D164" s="84">
-        <v>1</v>
-      </c>
-      <c r="E164" s="82" t="s">
-        <v>34</v>
+        <v>346</v>
+      </c>
+      <c r="B164" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D164" s="88">
+        <v>1</v>
+      </c>
+      <c r="E164" s="89" t="s">
+        <v>66</v>
       </c>
       <c r="F164" s="82"/>
-      <c r="G164" s="84">
-        <v>1</v>
-      </c>
-      <c r="H164" s="82" t="s">
-        <v>89</v>
-      </c>
+      <c r="G164" s="84"/>
+      <c r="H164" s="82"/>
       <c r="I164" s="72" t="s">
         <v>29</v>
       </c>
       <c r="J164" s="73"/>
-      <c r="K164" s="74" t="s">
-        <v>29</v>
-      </c>
+      <c r="K164" s="74"/>
       <c r="L164" s="17"/>
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
@@ -9422,13 +9423,13 @@
     </row>
     <row r="165" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="82" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B165" s="83" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C165" s="83" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D165" s="84">
         <v>1</v>
@@ -9441,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="H165" s="82" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I165" s="72" t="s">
         <v>29</v>
@@ -9458,13 +9459,13 @@
     </row>
     <row r="166" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="82" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B166" s="83" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C166" s="83" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D166" s="84">
         <v>1</v>
@@ -9477,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I166" s="72" t="s">
         <v>29</v>
@@ -9494,12 +9495,14 @@
     </row>
     <row r="167" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="82" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B167" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="C167" s="83"/>
+        <v>415</v>
+      </c>
+      <c r="C167" s="83" t="s">
+        <v>416</v>
+      </c>
       <c r="D167" s="84">
         <v>1</v>
       </c>
@@ -9511,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="82" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="I167" s="72" t="s">
         <v>29</v>
@@ -9528,14 +9531,12 @@
     </row>
     <row r="168" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="82" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="B168" s="83" t="s">
-        <v>365</v>
-      </c>
-      <c r="C168" s="83" t="s">
-        <v>419</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C168" s="83"/>
       <c r="D168" s="84">
         <v>1</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="82" t="s">
-        <v>367</v>
+        <v>89</v>
       </c>
       <c r="I168" s="72" t="s">
         <v>29</v>
@@ -9564,13 +9565,13 @@
     </row>
     <row r="169" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="82" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="B169" s="83" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="C169" s="83" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D169" s="84">
         <v>1</v>
@@ -9583,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="H169" s="82" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="I169" s="72" t="s">
         <v>29</v>
@@ -9600,13 +9601,13 @@
     </row>
     <row r="170" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="82" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B170" s="83" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C170" s="83" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D170" s="84">
         <v>1</v>
@@ -9619,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="82" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I170" s="72" t="s">
         <v>29</v>
@@ -9636,12 +9637,14 @@
     </row>
     <row r="171" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="82" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B171" s="83" t="s">
-        <v>429</v>
-      </c>
-      <c r="C171" s="83"/>
+        <v>425</v>
+      </c>
+      <c r="C171" s="83" t="s">
+        <v>426</v>
+      </c>
       <c r="D171" s="84">
         <v>1</v>
       </c>
@@ -9653,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="H171" s="82" t="s">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="I171" s="72" t="s">
         <v>29</v>
@@ -9670,14 +9673,12 @@
     </row>
     <row r="172" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="82" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B172" s="83" t="s">
-        <v>431</v>
-      </c>
-      <c r="C172" s="83" t="s">
-        <v>419</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C172" s="83"/>
       <c r="D172" s="84">
         <v>1</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="82" t="s">
-        <v>367</v>
+        <v>89</v>
       </c>
       <c r="I172" s="72" t="s">
         <v>29</v>
@@ -9706,13 +9707,13 @@
     </row>
     <row r="173" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="82" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B173" s="83" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C173" s="83" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D173" s="84">
         <v>1</v>
@@ -9725,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="82" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="I173" s="72" t="s">
         <v>29</v>
@@ -9742,13 +9743,13 @@
     </row>
     <row r="174" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="82" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B174" s="83" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C174" s="83" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D174" s="84">
         <v>1</v>
@@ -9761,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="82" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I174" s="72" t="s">
         <v>29</v>
@@ -9778,13 +9779,13 @@
     </row>
     <row r="175" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="82" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B175" s="83" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C175" s="83" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="D175" s="84">
         <v>1</v>
@@ -9797,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="82" t="s">
-        <v>70</v>
+        <v>427</v>
       </c>
       <c r="I175" s="72" t="s">
         <v>29</v>
@@ -9814,10 +9815,10 @@
     </row>
     <row r="176" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="82" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B176" s="83" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C176" s="83" t="s">
         <v>438</v>
@@ -9833,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="82" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I176" s="72" t="s">
         <v>29</v>
@@ -9850,13 +9851,13 @@
     </row>
     <row r="177" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="82" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B177" s="83" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C177" s="83" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D177" s="84">
         <v>1</v>
@@ -9869,7 +9870,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="82" t="s">
-        <v>444</v>
+        <v>48</v>
       </c>
       <c r="I177" s="72" t="s">
         <v>29</v>
@@ -9886,12 +9887,14 @@
     </row>
     <row r="178" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="82" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B178" s="83" t="s">
-        <v>446</v>
-      </c>
-      <c r="C178" s="83"/>
+        <v>442</v>
+      </c>
+      <c r="C178" s="83" t="s">
+        <v>443</v>
+      </c>
       <c r="D178" s="84">
         <v>1</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="82" t="s">
-        <v>89</v>
+        <v>444</v>
       </c>
       <c r="I178" s="72" t="s">
         <v>29</v>
@@ -9920,10 +9923,10 @@
     </row>
     <row r="179" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="82" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B179" s="83" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C179" s="83"/>
       <c r="D179" s="84">
@@ -9937,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="H179" s="82" t="s">
-        <v>449</v>
+        <v>89</v>
       </c>
       <c r="I179" s="72" t="s">
         <v>29</v>
@@ -9954,10 +9957,10 @@
     </row>
     <row r="180" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="82" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B180" s="83" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C180" s="83"/>
       <c r="D180" s="84">
@@ -9971,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="82" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I180" s="72" t="s">
         <v>29</v>
@@ -9988,10 +9991,10 @@
     </row>
     <row r="181" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="82" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B181" s="83" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C181" s="83"/>
       <c r="D181" s="84">
@@ -10005,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="H181" s="82" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I181" s="72" t="s">
         <v>29</v>
@@ -10022,10 +10025,10 @@
     </row>
     <row r="182" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="82" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B182" s="83" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C182" s="83"/>
       <c r="D182" s="84">
@@ -10039,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="H182" s="82" t="s">
-        <v>89</v>
+        <v>455</v>
       </c>
       <c r="I182" s="72" t="s">
         <v>29</v>
@@ -10056,10 +10059,10 @@
     </row>
     <row r="183" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="82" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B183" s="83" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C183" s="83"/>
       <c r="D183" s="84">
@@ -10073,7 +10076,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="82" t="s">
-        <v>449</v>
+        <v>89</v>
       </c>
       <c r="I183" s="72" t="s">
         <v>29</v>
@@ -10090,10 +10093,10 @@
     </row>
     <row r="184" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="82" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B184" s="83" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C184" s="83"/>
       <c r="D184" s="84">
@@ -10107,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="82" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I184" s="72" t="s">
         <v>29</v>
@@ -10124,10 +10127,10 @@
     </row>
     <row r="185" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="82" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B185" s="83" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C185" s="83"/>
       <c r="D185" s="84">
@@ -10141,7 +10144,7 @@
         <v>1</v>
       </c>
       <c r="H185" s="82" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I185" s="72" t="s">
         <v>29</v>
@@ -10157,23 +10160,33 @@
       <c r="P185" s="17"/>
     </row>
     <row r="186" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="B186" s="60" t="s">
-        <v>465</v>
-      </c>
-      <c r="C186" s="61"/>
-      <c r="D186" s="62"/>
-      <c r="E186" s="63"/>
-      <c r="F186" s="63"/>
-      <c r="G186" s="62"/>
-      <c r="H186" s="63"/>
-      <c r="I186" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J186" s="65"/>
-      <c r="K186" s="66"/>
+      <c r="A186" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="B186" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="C186" s="83"/>
+      <c r="D186" s="84">
+        <v>1</v>
+      </c>
+      <c r="E186" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="82"/>
+      <c r="G186" s="84">
+        <v>1</v>
+      </c>
+      <c r="H186" s="82" t="s">
+        <v>455</v>
+      </c>
+      <c r="I186" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J186" s="73"/>
+      <c r="K186" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="L186" s="17"/>
       <c r="M186" s="17"/>
       <c r="N186" s="17"/>
@@ -10181,33 +10194,23 @@
       <c r="P186" s="17"/>
     </row>
     <row r="187" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B187" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E187" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H187" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I187" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J187" s="20"/>
-      <c r="K187" s="21"/>
+      <c r="A187" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="B187" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="C187" s="61"/>
+      <c r="D187" s="62"/>
+      <c r="E187" s="63"/>
+      <c r="F187" s="63"/>
+      <c r="G187" s="62"/>
+      <c r="H187" s="63"/>
+      <c r="I187" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J187" s="65"/>
+      <c r="K187" s="66"/>
       <c r="L187" s="17"/>
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
@@ -10215,29 +10218,33 @@
       <c r="P187" s="17"/>
     </row>
     <row r="188" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B188" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C188" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D188" s="88">
-        <v>1</v>
-      </c>
-      <c r="E188" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F188" s="75"/>
-      <c r="G188" s="78"/>
-      <c r="H188" s="75"/>
-      <c r="I188" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J188" s="73"/>
-      <c r="K188" s="74"/>
+      <c r="A188" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H188" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I188" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J188" s="20"/>
+      <c r="K188" s="21"/>
       <c r="L188" s="17"/>
       <c r="M188" s="17"/>
       <c r="N188" s="17"/>
@@ -10246,32 +10253,28 @@
     </row>
     <row r="189" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="75" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>467</v>
-      </c>
-      <c r="C189" s="76" t="s">
-        <v>468</v>
-      </c>
-      <c r="D189" s="78">
-        <v>1</v>
-      </c>
-      <c r="E189" s="75" t="s">
-        <v>62</v>
+        <v>347</v>
+      </c>
+      <c r="C189" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D189" s="88">
+        <v>1</v>
+      </c>
+      <c r="E189" s="89" t="s">
+        <v>66</v>
       </c>
       <c r="F189" s="75"/>
       <c r="G189" s="78"/>
-      <c r="H189" s="75" t="s">
-        <v>64</v>
-      </c>
+      <c r="H189" s="75"/>
       <c r="I189" s="72" t="s">
         <v>29</v>
       </c>
       <c r="J189" s="73"/>
-      <c r="K189" s="74" t="s">
-        <v>29</v>
-      </c>
+      <c r="K189" s="74"/>
       <c r="L189" s="17"/>
       <c r="M189" s="17"/>
       <c r="N189" s="17"/>
@@ -10280,13 +10283,13 @@
     </row>
     <row r="190" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="75" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B190" s="76" t="s">
         <v>467</v>
       </c>
       <c r="C190" s="76" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D190" s="78">
         <v>1</v>
@@ -10314,13 +10317,13 @@
     </row>
     <row r="191" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="75" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B191" s="76" t="s">
         <v>467</v>
       </c>
       <c r="C191" s="76" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D191" s="78">
         <v>1</v>
@@ -10337,7 +10340,9 @@
         <v>29</v>
       </c>
       <c r="J191" s="73"/>
-      <c r="K191" s="74"/>
+      <c r="K191" s="74" t="s">
+        <v>29</v>
+      </c>
       <c r="L191" s="17"/>
       <c r="M191" s="17"/>
       <c r="N191" s="17"/>
@@ -10346,13 +10351,13 @@
     </row>
     <row r="192" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="75" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B192" s="76" t="s">
         <v>467</v>
       </c>
       <c r="C192" s="76" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D192" s="78">
         <v>1</v>
@@ -10377,19 +10382,31 @@
       <c r="P192" s="17"/>
     </row>
     <row r="193" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="120" t="s">
-        <v>473</v>
-      </c>
-      <c r="B193" s="121"/>
-      <c r="C193" s="121"/>
-      <c r="D193" s="121"/>
-      <c r="E193" s="121"/>
-      <c r="F193" s="121"/>
-      <c r="G193" s="121"/>
-      <c r="H193" s="121"/>
-      <c r="I193" s="121"/>
-      <c r="J193" s="121"/>
-      <c r="K193" s="121"/>
+      <c r="A193" s="75" t="s">
+        <v>472</v>
+      </c>
+      <c r="B193" s="76" t="s">
+        <v>467</v>
+      </c>
+      <c r="C193" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="D193" s="78">
+        <v>1</v>
+      </c>
+      <c r="E193" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F193" s="75"/>
+      <c r="G193" s="78"/>
+      <c r="H193" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I193" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J193" s="73"/>
+      <c r="K193" s="74"/>
       <c r="L193" s="17"/>
       <c r="M193" s="17"/>
       <c r="N193" s="17"/>
@@ -10397,23 +10414,19 @@
       <c r="P193" s="17"/>
     </row>
     <row r="194" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="90" t="s">
-        <v>474</v>
-      </c>
-      <c r="B194" s="90" t="s">
-        <v>475</v>
-      </c>
-      <c r="C194" s="91"/>
-      <c r="D194" s="92"/>
-      <c r="E194" s="93"/>
-      <c r="F194" s="93"/>
-      <c r="G194" s="92"/>
-      <c r="H194" s="93"/>
-      <c r="I194" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J194" s="65"/>
-      <c r="K194" s="66"/>
+      <c r="A194" s="120" t="s">
+        <v>473</v>
+      </c>
+      <c r="B194" s="121"/>
+      <c r="C194" s="121"/>
+      <c r="D194" s="121"/>
+      <c r="E194" s="121"/>
+      <c r="F194" s="121"/>
+      <c r="G194" s="121"/>
+      <c r="H194" s="121"/>
+      <c r="I194" s="121"/>
+      <c r="J194" s="121"/>
+      <c r="K194" s="121"/>
       <c r="L194" s="17"/>
       <c r="M194" s="17"/>
       <c r="N194" s="17"/>
@@ -10421,65 +10434,57 @@
       <c r="P194" s="17"/>
     </row>
     <row r="195" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B195" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E195" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H195" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I195" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J195" s="20"/>
-      <c r="K195" s="21"/>
-      <c r="L195" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="A195" s="90" t="s">
+        <v>474</v>
+      </c>
+      <c r="B195" s="90" t="s">
+        <v>475</v>
+      </c>
+      <c r="C195" s="91"/>
+      <c r="D195" s="92"/>
+      <c r="E195" s="93"/>
+      <c r="F195" s="93"/>
+      <c r="G195" s="92"/>
+      <c r="H195" s="93"/>
+      <c r="I195" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J195" s="65"/>
+      <c r="K195" s="66"/>
+      <c r="L195" s="17"/>
       <c r="M195" s="17"/>
       <c r="N195" s="17"/>
       <c r="O195" s="17"/>
-      <c r="P195" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="P195" s="17"/>
     </row>
     <row r="196" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="B196" s="76"/>
-      <c r="C196" s="76" t="s">
-        <v>477</v>
-      </c>
-      <c r="D196" s="88">
-        <v>1</v>
-      </c>
-      <c r="E196" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F196" s="75"/>
-      <c r="G196" s="78"/>
-      <c r="H196" s="75"/>
-      <c r="I196" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J196" s="73"/>
-      <c r="K196" s="74"/>
+      <c r="A196" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" s="18"/>
+      <c r="G196" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H196" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I196" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J196" s="20"/>
+      <c r="K196" s="21"/>
       <c r="L196" s="17" t="s">
         <v>257</v>
       </c>
@@ -10491,30 +10496,26 @@
       </c>
     </row>
     <row r="197" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="89" t="s">
-        <v>478</v>
-      </c>
-      <c r="B197" s="94" t="s">
-        <v>479</v>
-      </c>
-      <c r="C197" s="94"/>
+      <c r="A197" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="B197" s="76"/>
+      <c r="C197" s="76" t="s">
+        <v>477</v>
+      </c>
       <c r="D197" s="88">
         <v>1</v>
       </c>
       <c r="E197" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="F197" s="89"/>
-      <c r="G197" s="88"/>
-      <c r="H197" s="89" t="s">
-        <v>64</v>
-      </c>
+      <c r="F197" s="75"/>
+      <c r="G197" s="78"/>
+      <c r="H197" s="75"/>
       <c r="I197" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="J197" s="73" t="s">
-        <v>29</v>
-      </c>
+      <c r="J197" s="73"/>
       <c r="K197" s="74"/>
       <c r="L197" s="17" t="s">
         <v>257</v>
@@ -10528,24 +10529,22 @@
     </row>
     <row r="198" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="89" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B198" s="94" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C198" s="94"/>
       <c r="D198" s="88">
         <v>1</v>
       </c>
       <c r="E198" s="89" t="s">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="F198" s="89"/>
-      <c r="G198" s="88">
-        <v>1</v>
-      </c>
+      <c r="G198" s="88"/>
       <c r="H198" s="89" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="I198" s="72" t="s">
         <v>29</v>
@@ -10566,10 +10565,10 @@
     </row>
     <row r="199" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="89" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B199" s="94" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C199" s="94"/>
       <c r="D199" s="88">
@@ -10583,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="H199" s="89" t="s">
-        <v>485</v>
+        <v>89</v>
       </c>
       <c r="I199" s="72" t="s">
         <v>29</v>
@@ -10604,24 +10603,24 @@
     </row>
     <row r="200" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="89" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B200" s="94" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C200" s="94"/>
       <c r="D200" s="88">
         <v>1</v>
       </c>
       <c r="E200" s="89" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F200" s="89"/>
       <c r="G200" s="88">
         <v>1</v>
       </c>
       <c r="H200" s="89" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I200" s="72" t="s">
         <v>29</v>
@@ -10642,32 +10641,32 @@
     </row>
     <row r="201" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="89" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B201" s="94" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C201" s="94"/>
       <c r="D201" s="88">
         <v>1</v>
       </c>
       <c r="E201" s="89" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F201" s="89"/>
       <c r="G201" s="88">
         <v>1</v>
       </c>
       <c r="H201" s="89" t="s">
-        <v>64</v>
+        <v>489</v>
       </c>
       <c r="I201" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="J201" s="73"/>
-      <c r="K201" s="74" t="s">
-        <v>29</v>
-      </c>
+      <c r="J201" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="K201" s="74"/>
       <c r="L201" s="17" t="s">
         <v>257</v>
       </c>
@@ -10679,101 +10678,95 @@
       </c>
     </row>
     <row r="202" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="95" t="s">
-        <v>492</v>
-      </c>
-      <c r="B202" s="95" t="s">
-        <v>492</v>
-      </c>
-      <c r="C202" s="85"/>
-      <c r="D202" s="86"/>
-      <c r="E202" s="87"/>
-      <c r="F202" s="87"/>
-      <c r="G202" s="86"/>
-      <c r="H202" s="87"/>
-      <c r="I202" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J202" s="65"/>
-      <c r="K202" s="66"/>
-      <c r="L202" s="96"/>
+      <c r="A202" s="89" t="s">
+        <v>490</v>
+      </c>
+      <c r="B202" s="94" t="s">
+        <v>491</v>
+      </c>
+      <c r="C202" s="94"/>
+      <c r="D202" s="88">
+        <v>1</v>
+      </c>
+      <c r="E202" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="F202" s="89"/>
+      <c r="G202" s="88">
+        <v>1</v>
+      </c>
+      <c r="H202" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="I202" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J202" s="73"/>
+      <c r="K202" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="L202" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="M202" s="17"/>
       <c r="N202" s="17"/>
       <c r="O202" s="17"/>
-      <c r="P202" s="17"/>
+      <c r="P202" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="203" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="18" t="s">
+      <c r="A203" s="95" t="s">
+        <v>492</v>
+      </c>
+      <c r="B203" s="95" t="s">
+        <v>492</v>
+      </c>
+      <c r="C203" s="85"/>
+      <c r="D203" s="86"/>
+      <c r="E203" s="87"/>
+      <c r="F203" s="87"/>
+      <c r="G203" s="86"/>
+      <c r="H203" s="87"/>
+      <c r="I203" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J203" s="65"/>
+      <c r="K203" s="66"/>
+      <c r="L203" s="96"/>
+      <c r="M203" s="17"/>
+      <c r="N203" s="17"/>
+      <c r="O203" s="17"/>
+      <c r="P203" s="17"/>
+    </row>
+    <row r="204" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B204" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C203" s="18" t="s">
+      <c r="C204" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="18" t="s">
+      <c r="D204" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E203" s="18" t="s">
+      <c r="E204" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18" t="s">
+      <c r="F204" s="18"/>
+      <c r="G204" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H203" s="18" t="s">
+      <c r="H204" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I203" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J203" s="20"/>
-      <c r="K203" s="21"/>
-      <c r="L203" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="M203" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="N203" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="O203" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="P203" s="17" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="89" t="s">
-        <v>494</v>
-      </c>
-      <c r="B204" s="94" t="s">
-        <v>495</v>
-      </c>
-      <c r="C204" s="94" t="s">
-        <v>496</v>
-      </c>
-      <c r="D204" s="88">
-        <v>1</v>
-      </c>
-      <c r="E204" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="F204" s="89"/>
-      <c r="G204" s="88"/>
-      <c r="H204" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="I204" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J204" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="K204" s="74"/>
+      <c r="I204" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J204" s="20"/>
+      <c r="K204" s="21"/>
       <c r="L204" s="17" t="s">
         <v>493</v>
       </c>
@@ -10791,89 +10784,101 @@
       </c>
     </row>
     <row r="205" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="95" t="s">
+      <c r="A205" s="89" t="s">
+        <v>494</v>
+      </c>
+      <c r="B205" s="94" t="s">
+        <v>495</v>
+      </c>
+      <c r="C205" s="94" t="s">
+        <v>496</v>
+      </c>
+      <c r="D205" s="88">
+        <v>1</v>
+      </c>
+      <c r="E205" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F205" s="89"/>
+      <c r="G205" s="88"/>
+      <c r="H205" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="I205" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J205" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="K205" s="74"/>
+      <c r="L205" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="M205" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="N205" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="O205" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="P205" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="95" t="s">
         <v>497</v>
       </c>
-      <c r="B205" s="95" t="s">
+      <c r="B206" s="95" t="s">
         <v>497</v>
       </c>
-      <c r="C205" s="85"/>
-      <c r="D205" s="86"/>
-      <c r="E205" s="87"/>
-      <c r="F205" s="87"/>
-      <c r="G205" s="86"/>
-      <c r="H205" s="87"/>
-      <c r="I205" s="64" t="s">
+      <c r="C206" s="85"/>
+      <c r="D206" s="86"/>
+      <c r="E206" s="87"/>
+      <c r="F206" s="87"/>
+      <c r="G206" s="86"/>
+      <c r="H206" s="87"/>
+      <c r="I206" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J205" s="65"/>
-      <c r="K205" s="66"/>
-      <c r="L205" s="96"/>
-      <c r="M205" s="17"/>
-      <c r="N205" s="17"/>
-      <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
-    </row>
-    <row r="206" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B206" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D206" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E206" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H206" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I206" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J206" s="20"/>
-      <c r="K206" s="21"/>
-      <c r="L206" s="17"/>
+      <c r="J206" s="65"/>
+      <c r="K206" s="66"/>
+      <c r="L206" s="96"/>
       <c r="M206" s="17"/>
       <c r="N206" s="17"/>
       <c r="O206" s="17"/>
-      <c r="P206" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="P206" s="17"/>
     </row>
     <row r="207" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B207" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C207" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D207" s="78">
-        <v>1</v>
-      </c>
-      <c r="E207" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F207" s="75"/>
-      <c r="G207" s="78"/>
-      <c r="H207" s="75"/>
-      <c r="I207" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J207" s="73"/>
-      <c r="K207" s="74"/>
+      <c r="A207" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H207" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I207" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J207" s="20"/>
+      <c r="K207" s="21"/>
       <c r="L207" s="17"/>
       <c r="M207" s="17"/>
       <c r="N207" s="17"/>
@@ -10884,17 +10889,19 @@
     </row>
     <row r="208" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="75" t="s">
-        <v>498</v>
-      </c>
-      <c r="B208" s="76"/>
-      <c r="C208" s="76" t="s">
-        <v>499</v>
+        <v>346</v>
+      </c>
+      <c r="B208" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C208" s="79" t="s">
+        <v>348</v>
       </c>
       <c r="D208" s="78">
-        <v>10</v>
-      </c>
-      <c r="E208" s="89" t="s">
-        <v>488</v>
+        <v>1</v>
+      </c>
+      <c r="E208" s="75" t="s">
+        <v>66</v>
       </c>
       <c r="F208" s="75"/>
       <c r="G208" s="78"/>
@@ -10914,14 +10921,14 @@
     </row>
     <row r="209" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="75" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B209" s="76"/>
       <c r="C209" s="76" t="s">
-        <v>501</v>
-      </c>
-      <c r="D209" s="88">
-        <v>1</v>
+        <v>499</v>
+      </c>
+      <c r="D209" s="78">
+        <v>10</v>
       </c>
       <c r="E209" s="89" t="s">
         <v>488</v>
@@ -10943,89 +10950,87 @@
       </c>
     </row>
     <row r="210" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="95" t="s">
-        <v>502</v>
-      </c>
-      <c r="B210" s="95" t="s">
-        <v>503</v>
-      </c>
-      <c r="C210" s="85"/>
-      <c r="D210" s="86"/>
-      <c r="E210" s="87"/>
-      <c r="F210" s="87"/>
-      <c r="G210" s="86"/>
-      <c r="H210" s="87"/>
-      <c r="I210" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J210" s="65"/>
-      <c r="K210" s="66"/>
-      <c r="L210" s="96"/>
+      <c r="A210" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="B210" s="76"/>
+      <c r="C210" s="76" t="s">
+        <v>501</v>
+      </c>
+      <c r="D210" s="88">
+        <v>1</v>
+      </c>
+      <c r="E210" s="89" t="s">
+        <v>488</v>
+      </c>
+      <c r="F210" s="75"/>
+      <c r="G210" s="78"/>
+      <c r="H210" s="75"/>
+      <c r="I210" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J210" s="73"/>
+      <c r="K210" s="74"/>
+      <c r="L210" s="17"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
-      <c r="P210" s="17"/>
+      <c r="P210" s="17" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="211" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B211" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C211" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D211" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E211" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H211" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I211" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J211" s="20"/>
-      <c r="K211" s="21"/>
-      <c r="L211" s="17"/>
+      <c r="A211" s="95" t="s">
+        <v>502</v>
+      </c>
+      <c r="B211" s="95" t="s">
+        <v>503</v>
+      </c>
+      <c r="C211" s="85"/>
+      <c r="D211" s="86"/>
+      <c r="E211" s="87"/>
+      <c r="F211" s="87"/>
+      <c r="G211" s="86"/>
+      <c r="H211" s="87"/>
+      <c r="I211" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J211" s="65"/>
+      <c r="K211" s="66"/>
+      <c r="L211" s="96"/>
       <c r="M211" s="17"/>
       <c r="N211" s="17"/>
       <c r="O211" s="17"/>
-      <c r="P211" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="P211" s="17"/>
     </row>
     <row r="212" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B212" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C212" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D212" s="78">
-        <v>1</v>
-      </c>
-      <c r="E212" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F212" s="75"/>
-      <c r="G212" s="78"/>
-      <c r="H212" s="75"/>
-      <c r="I212" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J212" s="73"/>
-      <c r="K212" s="74"/>
+      <c r="A212" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E212" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F212" s="18"/>
+      <c r="G212" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I212" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J212" s="20"/>
+      <c r="K212" s="21"/>
       <c r="L212" s="17"/>
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
@@ -11035,31 +11040,29 @@
       </c>
     </row>
     <row r="213" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="B213" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C213" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D213" s="23">
-        <v>1</v>
-      </c>
-      <c r="E213" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F213" s="37"/>
-      <c r="G213" s="23"/>
-      <c r="H213" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I213" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J213" s="20"/>
-      <c r="K213" s="21"/>
+      <c r="A213" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="B213" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C213" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D213" s="78">
+        <v>1</v>
+      </c>
+      <c r="E213" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F213" s="75"/>
+      <c r="G213" s="78"/>
+      <c r="H213" s="75"/>
+      <c r="I213" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J213" s="73"/>
+      <c r="K213" s="74"/>
       <c r="L213" s="17"/>
       <c r="M213" s="17"/>
       <c r="N213" s="17"/>
@@ -11069,31 +11072,31 @@
       </c>
     </row>
     <row r="214" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="B214" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="C214" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="D214" s="17">
+      <c r="A214" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D214" s="23">
         <v>1</v>
       </c>
       <c r="E214" s="18" t="s">
         <v>79</v>
       </c>
       <c r="F214" s="37"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="97" t="s">
+      <c r="G214" s="23"/>
+      <c r="H214" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I214" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J214" s="73"/>
-      <c r="K214" s="74"/>
+      <c r="I214" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J214" s="20"/>
+      <c r="K214" s="21"/>
       <c r="L214" s="17"/>
       <c r="M214" s="17"/>
       <c r="N214" s="17"/>
@@ -11103,24 +11106,26 @@
       </c>
     </row>
     <row r="215" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="B215" s="76" t="s">
-        <v>506</v>
-      </c>
-      <c r="C215" s="76" t="s">
-        <v>506</v>
-      </c>
-      <c r="D215" s="78">
-        <v>1</v>
-      </c>
-      <c r="E215" s="89" t="s">
-        <v>488</v>
-      </c>
-      <c r="F215" s="75"/>
-      <c r="G215" s="78"/>
-      <c r="H215" s="75"/>
+      <c r="A215" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B215" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C215" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="D215" s="17">
+        <v>1</v>
+      </c>
+      <c r="E215" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F215" s="37"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="97" t="s">
+        <v>64</v>
+      </c>
       <c r="I215" s="72" t="s">
         <v>29</v>
       </c>
@@ -11135,24 +11140,24 @@
       </c>
     </row>
     <row r="216" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="97" t="s">
-        <v>507</v>
-      </c>
-      <c r="B216" s="77" t="s">
-        <v>508</v>
-      </c>
-      <c r="C216" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="D216" s="17">
-        <v>1</v>
-      </c>
-      <c r="E216" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F216" s="37"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="97"/>
+      <c r="A216" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="B216" s="76" t="s">
+        <v>506</v>
+      </c>
+      <c r="C216" s="76" t="s">
+        <v>506</v>
+      </c>
+      <c r="D216" s="78">
+        <v>1</v>
+      </c>
+      <c r="E216" s="89" t="s">
+        <v>488</v>
+      </c>
+      <c r="F216" s="75"/>
+      <c r="G216" s="78"/>
+      <c r="H216" s="75"/>
       <c r="I216" s="72" t="s">
         <v>29</v>
       </c>
@@ -11167,91 +11172,89 @@
       </c>
     </row>
     <row r="217" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="95" t="s">
-        <v>510</v>
-      </c>
-      <c r="B217" s="95" t="s">
-        <v>511</v>
-      </c>
-      <c r="C217" s="85"/>
-      <c r="D217" s="86"/>
-      <c r="E217" s="87"/>
-      <c r="F217" s="87"/>
-      <c r="G217" s="86"/>
-      <c r="H217" s="87"/>
-      <c r="I217" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J217" s="65"/>
-      <c r="K217" s="66"/>
-      <c r="L217" s="96"/>
+      <c r="A217" s="97" t="s">
+        <v>507</v>
+      </c>
+      <c r="B217" s="77" t="s">
+        <v>508</v>
+      </c>
+      <c r="C217" s="77" t="s">
+        <v>509</v>
+      </c>
+      <c r="D217" s="17">
+        <v>1</v>
+      </c>
+      <c r="E217" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F217" s="37"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="97"/>
+      <c r="I217" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J217" s="73"/>
+      <c r="K217" s="74"/>
+      <c r="L217" s="17"/>
       <c r="M217" s="17"/>
       <c r="N217" s="17"/>
       <c r="O217" s="17"/>
-      <c r="P217" s="17"/>
+      <c r="P217" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="218" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="18" t="s">
+      <c r="A218" s="95" t="s">
+        <v>510</v>
+      </c>
+      <c r="B218" s="95" t="s">
+        <v>511</v>
+      </c>
+      <c r="C218" s="85"/>
+      <c r="D218" s="86"/>
+      <c r="E218" s="87"/>
+      <c r="F218" s="87"/>
+      <c r="G218" s="86"/>
+      <c r="H218" s="87"/>
+      <c r="I218" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J218" s="65"/>
+      <c r="K218" s="66"/>
+      <c r="L218" s="96"/>
+      <c r="M218" s="17"/>
+      <c r="N218" s="17"/>
+      <c r="O218" s="17"/>
+      <c r="P218" s="17"/>
+    </row>
+    <row r="219" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B219" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C219" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="D219" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E218" s="18" t="s">
+      <c r="E219" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F218" s="18"/>
-      <c r="G218" s="18" t="s">
+      <c r="F219" s="18"/>
+      <c r="G219" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H218" s="18" t="s">
+      <c r="H219" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I218" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J218" s="20"/>
-      <c r="K218" s="21"/>
-      <c r="L218" s="17"/>
-      <c r="M218" s="17"/>
-      <c r="N218" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O218" s="17"/>
-      <c r="P218" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B219" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C219" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D219" s="78">
-        <v>1</v>
-      </c>
-      <c r="E219" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F219" s="75"/>
-      <c r="G219" s="78"/>
-      <c r="H219" s="75"/>
-      <c r="I219" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J219" s="73"/>
-      <c r="K219" s="74"/>
+      <c r="I219" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J219" s="20"/>
+      <c r="K219" s="21"/>
       <c r="L219" s="17"/>
       <c r="M219" s="17"/>
       <c r="N219" s="17" t="s">
@@ -11263,26 +11266,24 @@
       </c>
     </row>
     <row r="220" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="B220" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="C220" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="D220" s="17">
-        <v>1</v>
-      </c>
-      <c r="E220" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F220" s="37"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="97" t="s">
-        <v>64</v>
-      </c>
+      <c r="A220" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="B220" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="C220" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D220" s="78">
+        <v>1</v>
+      </c>
+      <c r="E220" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F220" s="75"/>
+      <c r="G220" s="78"/>
+      <c r="H220" s="75"/>
       <c r="I220" s="72" t="s">
         <v>29</v>
       </c>
@@ -11299,27 +11300,25 @@
       </c>
     </row>
     <row r="221" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="75" t="s">
-        <v>512</v>
-      </c>
-      <c r="B221" s="76" t="s">
-        <v>513</v>
-      </c>
-      <c r="C221" s="76" t="s">
-        <v>514</v>
-      </c>
-      <c r="D221" s="78">
-        <v>1</v>
-      </c>
-      <c r="E221" s="89" t="s">
-        <v>488</v>
-      </c>
-      <c r="F221" s="75"/>
-      <c r="G221" s="78">
-        <v>100</v>
-      </c>
-      <c r="H221" s="75" t="s">
-        <v>515</v>
+      <c r="A221" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B221" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C221" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="D221" s="17">
+        <v>1</v>
+      </c>
+      <c r="E221" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F221" s="37"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="97" t="s">
+        <v>64</v>
       </c>
       <c r="I221" s="72" t="s">
         <v>29</v>
@@ -11338,23 +11337,27 @@
     </row>
     <row r="222" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="75" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B222" s="76" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C222" s="76" t="s">
-        <v>518</v>
-      </c>
-      <c r="D222" s="88">
+        <v>514</v>
+      </c>
+      <c r="D222" s="78">
         <v>1</v>
       </c>
       <c r="E222" s="89" t="s">
         <v>488</v>
       </c>
       <c r="F222" s="75"/>
-      <c r="G222" s="78"/>
-      <c r="H222" s="75"/>
+      <c r="G222" s="78">
+        <v>100</v>
+      </c>
+      <c r="H222" s="75" t="s">
+        <v>515</v>
+      </c>
       <c r="I222" s="72" t="s">
         <v>29</v>
       </c>
@@ -11371,95 +11374,91 @@
       </c>
     </row>
     <row r="223" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="59" t="s">
-        <v>519</v>
-      </c>
-      <c r="B223" s="90" t="s">
-        <v>520</v>
-      </c>
-      <c r="C223" s="98"/>
-      <c r="D223" s="99"/>
-      <c r="E223" s="65"/>
-      <c r="F223" s="65"/>
-      <c r="G223" s="99"/>
-      <c r="H223" s="65"/>
-      <c r="I223" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J223" s="65"/>
-      <c r="K223" s="66"/>
+      <c r="A223" s="75" t="s">
+        <v>516</v>
+      </c>
+      <c r="B223" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="C223" s="76" t="s">
+        <v>518</v>
+      </c>
+      <c r="D223" s="88">
+        <v>1</v>
+      </c>
+      <c r="E223" s="89" t="s">
+        <v>488</v>
+      </c>
+      <c r="F223" s="75"/>
+      <c r="G223" s="78"/>
+      <c r="H223" s="75"/>
+      <c r="I223" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J223" s="73"/>
+      <c r="K223" s="74"/>
       <c r="L223" s="17"/>
       <c r="M223" s="17"/>
-      <c r="N223" s="17"/>
+      <c r="N223" s="17" t="s">
+        <v>75</v>
+      </c>
       <c r="O223" s="17"/>
-      <c r="P223" s="17"/>
+      <c r="P223" s="17" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="224" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B224" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C224" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E224" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F224" s="18"/>
-      <c r="G224" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H224" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I224" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J224" s="20"/>
-      <c r="K224" s="21"/>
-      <c r="L224" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="A224" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="B224" s="90" t="s">
+        <v>520</v>
+      </c>
+      <c r="C224" s="98"/>
+      <c r="D224" s="99"/>
+      <c r="E224" s="65"/>
+      <c r="F224" s="65"/>
+      <c r="G224" s="99"/>
+      <c r="H224" s="65"/>
+      <c r="I224" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J224" s="65"/>
+      <c r="K224" s="66"/>
+      <c r="L224" s="17"/>
       <c r="M224" s="17"/>
       <c r="N224" s="17"/>
       <c r="O224" s="17"/>
-      <c r="P224" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="P224" s="17"/>
     </row>
     <row r="225" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="75" t="s">
-        <v>521</v>
-      </c>
-      <c r="B225" s="76" t="s">
-        <v>522</v>
-      </c>
-      <c r="C225" s="79" t="s">
-        <v>523</v>
-      </c>
-      <c r="D225" s="78">
-        <v>1</v>
-      </c>
-      <c r="E225" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F225" s="75"/>
-      <c r="G225" s="78">
-        <v>1</v>
-      </c>
-      <c r="H225" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I225" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J225" s="73"/>
-      <c r="K225" s="74"/>
+      <c r="A225" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F225" s="18"/>
+      <c r="G225" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I225" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J225" s="20"/>
+      <c r="K225" s="21"/>
       <c r="L225" s="17" t="s">
         <v>257</v>
       </c>
@@ -11472,23 +11471,27 @@
     </row>
     <row r="226" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="B226" s="76"/>
-      <c r="C226" s="76" t="s">
-        <v>524</v>
+        <v>521</v>
+      </c>
+      <c r="B226" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="C226" s="79" t="s">
+        <v>523</v>
       </c>
       <c r="D226" s="78">
         <v>1</v>
       </c>
-      <c r="E226" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F226" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G226" s="78"/>
-      <c r="H226" s="75"/>
+      <c r="E226" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F226" s="75"/>
+      <c r="G226" s="78">
+        <v>1</v>
+      </c>
+      <c r="H226" s="75" t="s">
+        <v>70</v>
+      </c>
       <c r="I226" s="72" t="s">
         <v>29</v>
       </c>
@@ -11505,33 +11508,29 @@
       </c>
     </row>
     <row r="227" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="B227" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C227" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D227" s="23">
-        <v>1</v>
-      </c>
-      <c r="E227" s="18" t="s">
+      <c r="A227" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="B227" s="76"/>
+      <c r="C227" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="D227" s="78">
+        <v>1</v>
+      </c>
+      <c r="E227" s="89" t="s">
         <v>79</v>
       </c>
       <c r="F227" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G227" s="23"/>
-      <c r="H227" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I227" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J227" s="20"/>
-      <c r="K227" s="21"/>
+      <c r="G227" s="78"/>
+      <c r="H227" s="75"/>
+      <c r="I227" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J227" s="73"/>
+      <c r="K227" s="74"/>
       <c r="L227" s="17" t="s">
         <v>257</v>
       </c>
@@ -11543,33 +11542,33 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="B228" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="C228" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="D228" s="17">
+      <c r="A228" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="B228" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D228" s="23">
         <v>1</v>
       </c>
       <c r="E228" s="18" t="s">
         <v>79</v>
       </c>
       <c r="F228" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="G228" s="17"/>
-      <c r="H228" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="G228" s="23"/>
+      <c r="H228" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I228" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J228" s="73"/>
-      <c r="K228" s="74"/>
+      <c r="I228" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J228" s="20"/>
+      <c r="K228" s="21"/>
       <c r="L228" s="17" t="s">
         <v>257</v>
       </c>
@@ -11581,95 +11580,95 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="59" t="s">
-        <v>526</v>
-      </c>
-      <c r="B229" s="90" t="s">
-        <v>527</v>
-      </c>
-      <c r="C229" s="98"/>
-      <c r="D229" s="99"/>
-      <c r="E229" s="65"/>
-      <c r="F229" s="65"/>
-      <c r="G229" s="99"/>
-      <c r="H229" s="65"/>
-      <c r="I229" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J229" s="65"/>
-      <c r="K229" s="66"/>
-      <c r="L229" s="17"/>
+      <c r="A229" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B229" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C229" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="D229" s="17">
+        <v>1</v>
+      </c>
+      <c r="E229" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F229" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="G229" s="17"/>
+      <c r="H229" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="I229" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J229" s="73"/>
+      <c r="K229" s="74"/>
+      <c r="L229" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="M229" s="17"/>
       <c r="N229" s="17"/>
       <c r="O229" s="17"/>
-      <c r="P229" s="17"/>
+      <c r="P229" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="230" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B230" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C230" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D230" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E230" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F230" s="18"/>
-      <c r="G230" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H230" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I230" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J230" s="20"/>
-      <c r="K230" s="21"/>
+      <c r="A230" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="B230" s="90" t="s">
+        <v>527</v>
+      </c>
+      <c r="C230" s="98"/>
+      <c r="D230" s="99"/>
+      <c r="E230" s="65"/>
+      <c r="F230" s="65"/>
+      <c r="G230" s="99"/>
+      <c r="H230" s="65"/>
+      <c r="I230" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J230" s="65"/>
+      <c r="K230" s="66"/>
       <c r="L230" s="17"/>
       <c r="M230" s="17"/>
-      <c r="N230" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="N230" s="17"/>
       <c r="O230" s="17"/>
-      <c r="P230" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="P230" s="17"/>
     </row>
     <row r="231" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="B231" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="C231" s="77" t="s">
-        <v>505</v>
-      </c>
-      <c r="D231" s="17">
-        <v>1</v>
+      <c r="A231" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E231" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F231" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="G231" s="17"/>
-      <c r="H231" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="I231" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J231" s="73"/>
-      <c r="K231" s="74"/>
+        <v>27</v>
+      </c>
+      <c r="F231" s="18"/>
+      <c r="G231" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H231" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I231" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J231" s="20"/>
+      <c r="K231" s="21"/>
       <c r="L231" s="17"/>
       <c r="M231" s="17"/>
       <c r="N231" s="17" t="s">
@@ -11677,31 +11676,31 @@
       </c>
       <c r="O231" s="17"/>
       <c r="P231" s="17" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="75" t="s">
-        <v>521</v>
-      </c>
-      <c r="B232" s="76" t="s">
-        <v>522</v>
-      </c>
-      <c r="C232" s="79" t="s">
-        <v>523</v>
-      </c>
-      <c r="D232" s="78">
-        <v>1</v>
-      </c>
-      <c r="E232" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F232" s="75"/>
-      <c r="G232" s="78">
-        <v>1</v>
-      </c>
-      <c r="H232" s="75" t="s">
-        <v>70</v>
+      <c r="A232" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B232" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="C232" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="D232" s="17">
+        <v>1</v>
+      </c>
+      <c r="E232" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F232" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="G232" s="17"/>
+      <c r="H232" s="97" t="s">
+        <v>64</v>
       </c>
       <c r="I232" s="72" t="s">
         <v>29</v>
@@ -11715,31 +11714,31 @@
       </c>
       <c r="O232" s="17"/>
       <c r="P232" s="17" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="75" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B233" s="76" t="s">
-        <v>529</v>
-      </c>
-      <c r="C233" s="76" t="s">
-        <v>530</v>
+        <v>522</v>
+      </c>
+      <c r="C233" s="79" t="s">
+        <v>523</v>
       </c>
       <c r="D233" s="78">
         <v>1</v>
       </c>
-      <c r="E233" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F233" s="37"/>
+      <c r="E233" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F233" s="75"/>
       <c r="G233" s="78">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H233" s="75" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="I233" s="72" t="s">
         <v>29</v>
@@ -11758,21 +11757,27 @@
     </row>
     <row r="234" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="75" t="s">
-        <v>531</v>
-      </c>
-      <c r="B234" s="76"/>
+        <v>528</v>
+      </c>
+      <c r="B234" s="76" t="s">
+        <v>529</v>
+      </c>
       <c r="C234" s="76" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D234" s="78">
         <v>1</v>
       </c>
       <c r="E234" s="89" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F234" s="37"/>
-      <c r="G234" s="78"/>
-      <c r="H234" s="75"/>
+      <c r="G234" s="78">
+        <v>100</v>
+      </c>
+      <c r="H234" s="75" t="s">
+        <v>515</v>
+      </c>
       <c r="I234" s="72" t="s">
         <v>29</v>
       </c>
@@ -11789,97 +11794,89 @@
       </c>
     </row>
     <row r="235" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="116" t="s">
+      <c r="A235" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="B235" s="76"/>
+      <c r="C235" s="76" t="s">
+        <v>532</v>
+      </c>
+      <c r="D235" s="78">
+        <v>1</v>
+      </c>
+      <c r="E235" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="F235" s="37"/>
+      <c r="G235" s="78"/>
+      <c r="H235" s="75"/>
+      <c r="I235" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J235" s="73"/>
+      <c r="K235" s="74"/>
+      <c r="L235" s="17"/>
+      <c r="M235" s="17"/>
+      <c r="N235" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O235" s="17"/>
+      <c r="P235" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="116" t="s">
         <v>533</v>
       </c>
-      <c r="B235" s="117" t="s">
+      <c r="B236" s="117" t="s">
         <v>534</v>
       </c>
-      <c r="C235" s="103"/>
-      <c r="D235" s="104"/>
-      <c r="E235" s="105"/>
-      <c r="F235" s="105"/>
-      <c r="G235" s="104"/>
-      <c r="H235" s="105"/>
-      <c r="I235" s="105" t="s">
+      <c r="C236" s="103"/>
+      <c r="D236" s="104"/>
+      <c r="E236" s="105"/>
+      <c r="F236" s="105"/>
+      <c r="G236" s="104"/>
+      <c r="H236" s="105"/>
+      <c r="I236" s="105" t="s">
         <v>277</v>
       </c>
-      <c r="J235" s="105"/>
-      <c r="K235" s="106"/>
-      <c r="L235" s="107"/>
-      <c r="M235" s="102"/>
-      <c r="N235" s="102"/>
-      <c r="O235" s="102"/>
-      <c r="P235" s="102"/>
-    </row>
-    <row r="236" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="67" t="s">
+      <c r="J236" s="105"/>
+      <c r="K236" s="106"/>
+      <c r="L236" s="107"/>
+      <c r="M236" s="102"/>
+      <c r="N236" s="102"/>
+      <c r="O236" s="102"/>
+      <c r="P236" s="102"/>
+    </row>
+    <row r="237" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B236" s="67" t="s">
+      <c r="B237" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C236" s="67" t="s">
+      <c r="C237" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D236" s="67" t="s">
+      <c r="D237" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E236" s="67" t="s">
+      <c r="E237" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F236" s="67"/>
-      <c r="G236" s="67" t="s">
+      <c r="F237" s="67"/>
+      <c r="G237" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="H236" s="67" t="s">
+      <c r="H237" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="I236" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="J236" s="109"/>
-      <c r="K236" s="110"/>
-      <c r="L236" s="102" t="s">
-        <v>493</v>
-      </c>
-      <c r="M236" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="N236" s="102" t="s">
-        <v>535</v>
-      </c>
-      <c r="O236" s="102"/>
-      <c r="P236" s="102" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="B237" s="69" t="s">
-        <v>347</v>
-      </c>
-      <c r="C237" s="70" t="s">
-        <v>348</v>
-      </c>
-      <c r="D237" s="71">
-        <v>1</v>
-      </c>
-      <c r="E237" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F237" s="68"/>
-      <c r="G237" s="71"/>
-      <c r="H237" s="68"/>
-      <c r="I237" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="J237" s="113"/>
-      <c r="K237" s="114" t="s">
-        <v>29</v>
-      </c>
+      <c r="I237" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="J237" s="109"/>
+      <c r="K237" s="110"/>
       <c r="L237" s="102" t="s">
         <v>493</v>
       </c>
@@ -11895,31 +11892,29 @@
       </c>
     </row>
     <row r="238" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="100" t="s">
-        <v>536</v>
-      </c>
-      <c r="B238" s="101" t="s">
-        <v>537</v>
-      </c>
-      <c r="C238" s="101" t="s">
-        <v>538</v>
-      </c>
-      <c r="D238" s="102">
-        <v>1</v>
-      </c>
-      <c r="E238" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="F238" s="100"/>
-      <c r="G238" s="102"/>
-      <c r="H238" s="100" t="s">
-        <v>64</v>
-      </c>
+      <c r="A238" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="B238" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="C238" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="D238" s="71">
+        <v>1</v>
+      </c>
+      <c r="E238" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F238" s="68"/>
+      <c r="G238" s="71"/>
+      <c r="H238" s="68"/>
       <c r="I238" s="112" t="s">
         <v>29</v>
       </c>
       <c r="J238" s="113"/>
-      <c r="K238" s="115" t="s">
+      <c r="K238" s="114" t="s">
         <v>29</v>
       </c>
       <c r="L238" s="102" t="s">
@@ -11938,13 +11933,13 @@
     </row>
     <row r="239" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="100" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B239" s="101" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C239" s="101" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D239" s="102">
         <v>1</v>
@@ -11980,13 +11975,13 @@
     </row>
     <row r="240" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="100" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B240" s="101" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C240" s="101" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D240" s="102">
         <v>1</v>
@@ -12022,13 +12017,13 @@
     </row>
     <row r="241" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="100" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B241" s="101" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C241" s="101" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D241" s="102">
         <v>1</v>
@@ -12064,13 +12059,13 @@
     </row>
     <row r="242" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="100" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B242" s="101" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C242" s="101" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D242" s="102">
         <v>1</v>
@@ -12106,13 +12101,13 @@
     </row>
     <row r="243" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="100" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B243" s="101" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C243" s="101" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D243" s="102">
         <v>1</v>
@@ -12148,13 +12143,13 @@
     </row>
     <row r="244" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="100" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B244" s="101" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C244" s="101" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D244" s="102">
         <v>1</v>
@@ -12190,13 +12185,13 @@
     </row>
     <row r="245" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="100" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B245" s="101" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C245" s="101" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D245" s="102">
         <v>1</v>
@@ -12232,13 +12227,13 @@
     </row>
     <row r="246" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="100" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B246" s="101" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C246" s="101" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D246" s="102">
         <v>1</v>
@@ -12273,86 +12268,92 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="59" t="s">
+      <c r="A247" s="100" t="s">
+        <v>560</v>
+      </c>
+      <c r="B247" s="101" t="s">
+        <v>561</v>
+      </c>
+      <c r="C247" s="101" t="s">
+        <v>562</v>
+      </c>
+      <c r="D247" s="102">
+        <v>1</v>
+      </c>
+      <c r="E247" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F247" s="100"/>
+      <c r="G247" s="102"/>
+      <c r="H247" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="I247" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J247" s="113"/>
+      <c r="K247" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="L247" s="102" t="s">
+        <v>493</v>
+      </c>
+      <c r="M247" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="N247" s="102" t="s">
+        <v>535</v>
+      </c>
+      <c r="O247" s="102"/>
+      <c r="P247" s="102" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="B247" s="95" t="s">
+      <c r="B248" s="95" t="s">
         <v>564</v>
       </c>
-      <c r="C247" s="98"/>
-      <c r="D247" s="99"/>
-      <c r="E247" s="65"/>
-      <c r="F247" s="65"/>
-      <c r="G247" s="99"/>
-      <c r="H247" s="65"/>
-      <c r="I247" s="64" t="s">
+      <c r="C248" s="98"/>
+      <c r="D248" s="99"/>
+      <c r="E248" s="65"/>
+      <c r="F248" s="65"/>
+      <c r="G248" s="99"/>
+      <c r="H248" s="65"/>
+      <c r="I248" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="J247" s="65"/>
-      <c r="K247" s="66"/>
-      <c r="L247" s="17"/>
-      <c r="M247" s="17"/>
-      <c r="N247" s="17"/>
-      <c r="O247" s="17"/>
-      <c r="P247" s="17"/>
-    </row>
-    <row r="248" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="B248" s="76" t="s">
-        <v>524</v>
-      </c>
-      <c r="C248" s="76" t="s">
-        <v>524</v>
-      </c>
-      <c r="D248" s="78">
-        <v>1</v>
-      </c>
-      <c r="E248" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F248" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G248" s="78"/>
-      <c r="H248" s="75"/>
-      <c r="I248" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J248" s="73"/>
-      <c r="K248" s="74"/>
-      <c r="L248" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="J248" s="65"/>
+      <c r="K248" s="66"/>
+      <c r="L248" s="17"/>
       <c r="M248" s="17"/>
       <c r="N248" s="17"/>
       <c r="O248" s="17"/>
       <c r="P248" s="17"/>
     </row>
     <row r="249" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="B249" s="77" t="s">
-        <v>566</v>
-      </c>
-      <c r="C249" s="77" t="s">
-        <v>567</v>
-      </c>
-      <c r="D249" s="17">
-        <v>1</v>
-      </c>
-      <c r="E249" s="97" t="s">
-        <v>488</v>
-      </c>
-      <c r="F249" s="97"/>
-      <c r="G249" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="H249" s="97" t="s">
-        <v>493</v>
-      </c>
+      <c r="A249" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="B249" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="C249" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="D249" s="78">
+        <v>1</v>
+      </c>
+      <c r="E249" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F249" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G249" s="78"/>
+      <c r="H249" s="75"/>
       <c r="I249" s="72" t="s">
         <v>29</v>
       </c>
@@ -12368,24 +12369,26 @@
     </row>
     <row r="250" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="97" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B250" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C250" s="77" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D250" s="17">
         <v>1</v>
       </c>
       <c r="E250" s="97" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="F250" s="97"/>
-      <c r="G250" s="17"/>
+      <c r="G250" s="17" t="s">
+        <v>568</v>
+      </c>
       <c r="H250" s="97" t="s">
-        <v>64</v>
+        <v>493</v>
       </c>
       <c r="I250" s="72" t="s">
         <v>29</v>
@@ -12402,13 +12405,13 @@
     </row>
     <row r="251" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="97" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B251" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C251" s="77" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D251" s="17">
         <v>1</v>
@@ -12416,10 +12419,8 @@
       <c r="E251" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="F251" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="G251" s="57"/>
+      <c r="F251" s="97"/>
+      <c r="G251" s="17"/>
       <c r="H251" s="97" t="s">
         <v>64</v>
       </c>
@@ -12438,28 +12439,26 @@
     </row>
     <row r="252" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="97" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B252" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C252" s="77" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D252" s="17">
         <v>1</v>
       </c>
       <c r="E252" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="F252" s="97" t="s">
-        <v>577</v>
-      </c>
-      <c r="G252" s="17">
-        <v>10</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F252" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="G252" s="57"/>
       <c r="H252" s="97" t="s">
-        <v>578</v>
+        <v>64</v>
       </c>
       <c r="I252" s="72" t="s">
         <v>29</v>
@@ -12476,24 +12475,28 @@
     </row>
     <row r="253" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="97" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B253" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C253" s="77" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D253" s="17">
         <v>1</v>
       </c>
       <c r="E253" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="F253" s="97"/>
-      <c r="G253" s="17"/>
+        <v>576</v>
+      </c>
+      <c r="F253" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="G253" s="17">
+        <v>10</v>
+      </c>
       <c r="H253" s="97" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I253" s="72" t="s">
         <v>29</v>
@@ -12510,28 +12513,24 @@
     </row>
     <row r="254" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="97" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B254" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C254" s="77" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D254" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E254" s="97" t="s">
-        <v>488</v>
-      </c>
-      <c r="F254" s="97" t="s">
-        <v>584</v>
-      </c>
-      <c r="G254" s="17">
-        <v>100</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F254" s="97"/>
+      <c r="G254" s="17"/>
       <c r="H254" s="97" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I254" s="72" t="s">
         <v>29</v>
@@ -12548,28 +12547,28 @@
     </row>
     <row r="255" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="97" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B255" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C255" s="77" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D255" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E255" s="97" t="s">
         <v>488</v>
       </c>
       <c r="F255" s="97" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G255" s="17">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H255" s="97" t="s">
-        <v>58</v>
+        <v>585</v>
       </c>
       <c r="I255" s="72" t="s">
         <v>29</v>
@@ -12586,26 +12585,28 @@
     </row>
     <row r="256" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="97" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B256" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C256" s="77" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D256" s="17">
         <v>1</v>
       </c>
       <c r="E256" s="97" t="s">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="F256" s="97" t="s">
-        <v>591</v>
-      </c>
-      <c r="G256" s="17"/>
+        <v>588</v>
+      </c>
+      <c r="G256" s="17">
+        <v>1000</v>
+      </c>
       <c r="H256" s="97" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I256" s="72" t="s">
         <v>29</v>
@@ -12622,13 +12623,13 @@
     </row>
     <row r="257" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="97" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B257" s="77" t="s">
         <v>566</v>
       </c>
       <c r="C257" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D257" s="17">
         <v>1</v>
@@ -12637,13 +12638,11 @@
         <v>62</v>
       </c>
       <c r="F257" s="97" t="s">
-        <v>594</v>
-      </c>
-      <c r="G257" s="17">
-        <v>10</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="G257" s="17"/>
       <c r="H257" s="97" t="s">
-        <v>595</v>
+        <v>64</v>
       </c>
       <c r="I257" s="72" t="s">
         <v>29</v>
@@ -12660,7 +12659,7 @@
     </row>
     <row r="258" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="97" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B258" s="77" t="s">
         <v>566</v>
@@ -12698,7 +12697,7 @@
     </row>
     <row r="259" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="97" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B259" s="77" t="s">
         <v>566</v>
@@ -12734,16 +12733,54 @@
       <c r="O259" s="17"/>
       <c r="P259" s="17"/>
     </row>
+    <row r="260" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="97" t="s">
+        <v>597</v>
+      </c>
+      <c r="B260" s="77" t="s">
+        <v>566</v>
+      </c>
+      <c r="C260" s="77" t="s">
+        <v>593</v>
+      </c>
+      <c r="D260" s="17">
+        <v>1</v>
+      </c>
+      <c r="E260" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F260" s="97" t="s">
+        <v>594</v>
+      </c>
+      <c r="G260" s="17">
+        <v>10</v>
+      </c>
+      <c r="H260" s="97" t="s">
+        <v>595</v>
+      </c>
+      <c r="I260" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J260" s="73"/>
+      <c r="K260" s="74"/>
+      <c r="L260" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="M260" s="17"/>
+      <c r="N260" s="17"/>
+      <c r="O260" s="17"/>
+      <c r="P260" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A160:K160"/>
-    <mergeCell ref="A193:K193"/>
+    <mergeCell ref="A161:K161"/>
+    <mergeCell ref="A194:K194"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="A120:K120"/>
-    <mergeCell ref="A134:K134"/>
-    <mergeCell ref="A145:K145"/>
+    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="A135:K135"/>
+    <mergeCell ref="A146:K146"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/signal_map/signalmap_safestrip_interfaces_v5.0.xlsx
+++ b/signal_map/signalmap_safestrip_interfaces_v5.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giammarco/GoogleDriveUNITN/PHDxxx/Projects/SAFESTRIP/MQTT_for_safestrip/signal_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B216A8A8-BB8C-F64F-94AD-F49131F45663}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C802388-8887-3443-B12E-B8F7B519CCC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2480" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{FBF927E7-8919-754A-9B9B-553D825B3903}"/>
   </bookViews>
@@ -1533,9 +1533,6 @@
     <t>ID of the strips associated to the free parking slots</t>
   </si>
   <si>
-    <t>Number of free parkings</t>
-  </si>
-  <si>
     <t>Number of the free parking slots</t>
   </si>
   <si>
@@ -1554,9 +1551,6 @@
     <t>ID of the strip sending event</t>
   </si>
   <si>
-    <t xml:space="preserve">Event </t>
-  </si>
-  <si>
     <t>exit , entering or unknowm</t>
   </si>
   <si>
@@ -1837,6 +1831,12 @@
   </si>
   <si>
     <t xml:space="preserve">This number depends on the lanes coded in the intersection, refer to the map </t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Number_of_free_parkings</t>
   </si>
 </sst>
 </file>
@@ -3065,8 +3065,8 @@
   <dimension ref="A1:P260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6877,13 +6877,13 @@
     </row>
     <row r="94" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>599</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>601</v>
       </c>
       <c r="D94" s="23">
         <v>1</v>
@@ -8448,7 +8448,7 @@
         <v>382</v>
       </c>
       <c r="B136" s="60" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C136" s="61"/>
       <c r="D136" s="62"/>
@@ -10951,11 +10951,11 @@
     </row>
     <row r="210" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="75" t="s">
-        <v>500</v>
+        <v>601</v>
       </c>
       <c r="B210" s="76"/>
       <c r="C210" s="76" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D210" s="88">
         <v>1</v>
@@ -10981,10 +10981,10 @@
     </row>
     <row r="211" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="95" t="s">
+        <v>501</v>
+      </c>
+      <c r="B211" s="95" t="s">
         <v>502</v>
-      </c>
-      <c r="B211" s="95" t="s">
-        <v>503</v>
       </c>
       <c r="C211" s="85"/>
       <c r="D211" s="86"/>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="214" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B214" s="22" t="s">
         <v>82</v>
@@ -11110,10 +11110,10 @@
         <v>260</v>
       </c>
       <c r="B215" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C215" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D215" s="17">
         <v>1</v>
@@ -11144,10 +11144,10 @@
         <v>476</v>
       </c>
       <c r="B216" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C216" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D216" s="78">
         <v>1</v>
@@ -11173,13 +11173,13 @@
     </row>
     <row r="217" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="97" t="s">
+        <v>600</v>
+      </c>
+      <c r="B217" s="77" t="s">
+        <v>506</v>
+      </c>
+      <c r="C217" s="77" t="s">
         <v>507</v>
-      </c>
-      <c r="B217" s="77" t="s">
-        <v>508</v>
-      </c>
-      <c r="C217" s="77" t="s">
-        <v>509</v>
       </c>
       <c r="D217" s="17">
         <v>1</v>
@@ -11205,10 +11205,10 @@
     </row>
     <row r="218" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="95" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B218" s="95" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C218" s="85"/>
       <c r="D218" s="86"/>
@@ -11304,10 +11304,10 @@
         <v>260</v>
       </c>
       <c r="B221" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C221" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D221" s="17">
         <v>1</v>
@@ -11337,13 +11337,13 @@
     </row>
     <row r="222" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="75" t="s">
+        <v>510</v>
+      </c>
+      <c r="B222" s="76" t="s">
+        <v>511</v>
+      </c>
+      <c r="C222" s="76" t="s">
         <v>512</v>
-      </c>
-      <c r="B222" s="76" t="s">
-        <v>513</v>
-      </c>
-      <c r="C222" s="76" t="s">
-        <v>514</v>
       </c>
       <c r="D222" s="78">
         <v>1</v>
@@ -11356,7 +11356,7 @@
         <v>100</v>
       </c>
       <c r="H222" s="75" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I222" s="72" t="s">
         <v>29</v>
@@ -11375,13 +11375,13 @@
     </row>
     <row r="223" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="75" t="s">
+        <v>514</v>
+      </c>
+      <c r="B223" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="C223" s="76" t="s">
         <v>516</v>
-      </c>
-      <c r="B223" s="76" t="s">
-        <v>517</v>
-      </c>
-      <c r="C223" s="76" t="s">
-        <v>518</v>
       </c>
       <c r="D223" s="88">
         <v>1</v>
@@ -11409,10 +11409,10 @@
     </row>
     <row r="224" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="59" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B224" s="90" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C224" s="98"/>
       <c r="D224" s="99"/>
@@ -11471,13 +11471,13 @@
     </row>
     <row r="226" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="75" t="s">
+        <v>519</v>
+      </c>
+      <c r="B226" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="C226" s="79" t="s">
         <v>521</v>
-      </c>
-      <c r="B226" s="76" t="s">
-        <v>522</v>
-      </c>
-      <c r="C226" s="79" t="s">
-        <v>523</v>
       </c>
       <c r="D226" s="78">
         <v>1</v>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="B227" s="76"/>
       <c r="C227" s="76" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D227" s="78">
         <v>1</v>
@@ -11543,7 +11543,7 @@
     </row>
     <row r="228" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B228" s="22" t="s">
         <v>82</v>
@@ -11584,10 +11584,10 @@
         <v>260</v>
       </c>
       <c r="B229" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C229" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D229" s="17">
         <v>1</v>
@@ -11596,7 +11596,7 @@
         <v>79</v>
       </c>
       <c r="F229" s="37" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G229" s="17"/>
       <c r="H229" s="97" t="s">
@@ -11619,10 +11619,10 @@
     </row>
     <row r="230" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="59" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B230" s="90" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C230" s="98"/>
       <c r="D230" s="99"/>
@@ -11684,10 +11684,10 @@
         <v>260</v>
       </c>
       <c r="B232" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C232" s="77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D232" s="17">
         <v>1</v>
@@ -11696,7 +11696,7 @@
         <v>79</v>
       </c>
       <c r="F232" s="37" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G232" s="17"/>
       <c r="H232" s="97" t="s">
@@ -11719,13 +11719,13 @@
     </row>
     <row r="233" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="75" t="s">
+        <v>519</v>
+      </c>
+      <c r="B233" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="C233" s="79" t="s">
         <v>521</v>
-      </c>
-      <c r="B233" s="76" t="s">
-        <v>522</v>
-      </c>
-      <c r="C233" s="79" t="s">
-        <v>523</v>
       </c>
       <c r="D233" s="78">
         <v>1</v>
@@ -11757,13 +11757,13 @@
     </row>
     <row r="234" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="B234" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="C234" s="76" t="s">
         <v>528</v>
-      </c>
-      <c r="B234" s="76" t="s">
-        <v>529</v>
-      </c>
-      <c r="C234" s="76" t="s">
-        <v>530</v>
       </c>
       <c r="D234" s="78">
         <v>1</v>
@@ -11776,7 +11776,7 @@
         <v>100</v>
       </c>
       <c r="H234" s="75" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I234" s="72" t="s">
         <v>29</v>
@@ -11795,11 +11795,11 @@
     </row>
     <row r="235" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="75" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B235" s="76"/>
       <c r="C235" s="76" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D235" s="78">
         <v>1</v>
@@ -11827,10 +11827,10 @@
     </row>
     <row r="236" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="116" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B236" s="117" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C236" s="103"/>
       <c r="D236" s="104"/>
@@ -11884,7 +11884,7 @@
         <v>183</v>
       </c>
       <c r="N237" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O237" s="102"/>
       <c r="P237" s="102" t="s">
@@ -11924,7 +11924,7 @@
         <v>183</v>
       </c>
       <c r="N238" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O238" s="102"/>
       <c r="P238" s="102" t="s">
@@ -11933,13 +11933,13 @@
     </row>
     <row r="239" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="100" t="s">
+        <v>534</v>
+      </c>
+      <c r="B239" s="101" t="s">
+        <v>535</v>
+      </c>
+      <c r="C239" s="101" t="s">
         <v>536</v>
-      </c>
-      <c r="B239" s="101" t="s">
-        <v>537</v>
-      </c>
-      <c r="C239" s="101" t="s">
-        <v>538</v>
       </c>
       <c r="D239" s="102">
         <v>1</v>
@@ -11966,7 +11966,7 @@
         <v>183</v>
       </c>
       <c r="N239" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O239" s="102"/>
       <c r="P239" s="102" t="s">
@@ -11975,13 +11975,13 @@
     </row>
     <row r="240" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="100" t="s">
+        <v>537</v>
+      </c>
+      <c r="B240" s="101" t="s">
+        <v>538</v>
+      </c>
+      <c r="C240" s="101" t="s">
         <v>539</v>
-      </c>
-      <c r="B240" s="101" t="s">
-        <v>540</v>
-      </c>
-      <c r="C240" s="101" t="s">
-        <v>541</v>
       </c>
       <c r="D240" s="102">
         <v>1</v>
@@ -12008,7 +12008,7 @@
         <v>183</v>
       </c>
       <c r="N240" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O240" s="102"/>
       <c r="P240" s="102" t="s">
@@ -12017,13 +12017,13 @@
     </row>
     <row r="241" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="100" t="s">
+        <v>540</v>
+      </c>
+      <c r="B241" s="101" t="s">
+        <v>541</v>
+      </c>
+      <c r="C241" s="101" t="s">
         <v>542</v>
-      </c>
-      <c r="B241" s="101" t="s">
-        <v>543</v>
-      </c>
-      <c r="C241" s="101" t="s">
-        <v>544</v>
       </c>
       <c r="D241" s="102">
         <v>1</v>
@@ -12050,7 +12050,7 @@
         <v>183</v>
       </c>
       <c r="N241" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O241" s="102"/>
       <c r="P241" s="102" t="s">
@@ -12059,13 +12059,13 @@
     </row>
     <row r="242" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="100" t="s">
+        <v>543</v>
+      </c>
+      <c r="B242" s="101" t="s">
+        <v>544</v>
+      </c>
+      <c r="C242" s="101" t="s">
         <v>545</v>
-      </c>
-      <c r="B242" s="101" t="s">
-        <v>546</v>
-      </c>
-      <c r="C242" s="101" t="s">
-        <v>547</v>
       </c>
       <c r="D242" s="102">
         <v>1</v>
@@ -12092,7 +12092,7 @@
         <v>183</v>
       </c>
       <c r="N242" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O242" s="102"/>
       <c r="P242" s="102" t="s">
@@ -12101,13 +12101,13 @@
     </row>
     <row r="243" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="100" t="s">
+        <v>546</v>
+      </c>
+      <c r="B243" s="101" t="s">
+        <v>547</v>
+      </c>
+      <c r="C243" s="101" t="s">
         <v>548</v>
-      </c>
-      <c r="B243" s="101" t="s">
-        <v>549</v>
-      </c>
-      <c r="C243" s="101" t="s">
-        <v>550</v>
       </c>
       <c r="D243" s="102">
         <v>1</v>
@@ -12134,7 +12134,7 @@
         <v>183</v>
       </c>
       <c r="N243" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O243" s="102"/>
       <c r="P243" s="102" t="s">
@@ -12143,13 +12143,13 @@
     </row>
     <row r="244" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="100" t="s">
+        <v>549</v>
+      </c>
+      <c r="B244" s="101" t="s">
+        <v>550</v>
+      </c>
+      <c r="C244" s="101" t="s">
         <v>551</v>
-      </c>
-      <c r="B244" s="101" t="s">
-        <v>552</v>
-      </c>
-      <c r="C244" s="101" t="s">
-        <v>553</v>
       </c>
       <c r="D244" s="102">
         <v>1</v>
@@ -12176,7 +12176,7 @@
         <v>183</v>
       </c>
       <c r="N244" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O244" s="102"/>
       <c r="P244" s="102" t="s">
@@ -12185,13 +12185,13 @@
     </row>
     <row r="245" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="100" t="s">
+        <v>552</v>
+      </c>
+      <c r="B245" s="101" t="s">
+        <v>553</v>
+      </c>
+      <c r="C245" s="101" t="s">
         <v>554</v>
-      </c>
-      <c r="B245" s="101" t="s">
-        <v>555</v>
-      </c>
-      <c r="C245" s="101" t="s">
-        <v>556</v>
       </c>
       <c r="D245" s="102">
         <v>1</v>
@@ -12218,7 +12218,7 @@
         <v>183</v>
       </c>
       <c r="N245" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O245" s="102"/>
       <c r="P245" s="102" t="s">
@@ -12227,13 +12227,13 @@
     </row>
     <row r="246" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="100" t="s">
+        <v>555</v>
+      </c>
+      <c r="B246" s="101" t="s">
+        <v>556</v>
+      </c>
+      <c r="C246" s="101" t="s">
         <v>557</v>
-      </c>
-      <c r="B246" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="C246" s="101" t="s">
-        <v>559</v>
       </c>
       <c r="D246" s="102">
         <v>1</v>
@@ -12260,7 +12260,7 @@
         <v>183</v>
       </c>
       <c r="N246" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O246" s="102"/>
       <c r="P246" s="102" t="s">
@@ -12269,13 +12269,13 @@
     </row>
     <row r="247" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="100" t="s">
+        <v>558</v>
+      </c>
+      <c r="B247" s="101" t="s">
+        <v>559</v>
+      </c>
+      <c r="C247" s="101" t="s">
         <v>560</v>
-      </c>
-      <c r="B247" s="101" t="s">
-        <v>561</v>
-      </c>
-      <c r="C247" s="101" t="s">
-        <v>562</v>
       </c>
       <c r="D247" s="102">
         <v>1</v>
@@ -12302,7 +12302,7 @@
         <v>183</v>
       </c>
       <c r="N247" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O247" s="102"/>
       <c r="P247" s="102" t="s">
@@ -12311,10 +12311,10 @@
     </row>
     <row r="248" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="59" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B248" s="95" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C248" s="98"/>
       <c r="D248" s="99"/>
@@ -12338,10 +12338,10 @@
         <v>476</v>
       </c>
       <c r="B249" s="76" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C249" s="76" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D249" s="78">
         <v>1</v>
@@ -12369,13 +12369,13 @@
     </row>
     <row r="250" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="B250" s="77" t="s">
+        <v>564</v>
+      </c>
+      <c r="C250" s="77" t="s">
         <v>565</v>
-      </c>
-      <c r="B250" s="77" t="s">
-        <v>566</v>
-      </c>
-      <c r="C250" s="77" t="s">
-        <v>567</v>
       </c>
       <c r="D250" s="17">
         <v>1</v>
@@ -12385,7 +12385,7 @@
       </c>
       <c r="F250" s="97"/>
       <c r="G250" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H250" s="97" t="s">
         <v>493</v>
@@ -12405,13 +12405,13 @@
     </row>
     <row r="251" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="97" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B251" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C251" s="77" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D251" s="17">
         <v>1</v>
@@ -12439,13 +12439,13 @@
     </row>
     <row r="252" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="97" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B252" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C252" s="77" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D252" s="17">
         <v>1</v>
@@ -12454,7 +12454,7 @@
         <v>62</v>
       </c>
       <c r="F252" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G252" s="57"/>
       <c r="H252" s="97" t="s">
@@ -12475,28 +12475,28 @@
     </row>
     <row r="253" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="97" t="s">
+        <v>572</v>
+      </c>
+      <c r="B253" s="77" t="s">
+        <v>564</v>
+      </c>
+      <c r="C253" s="77" t="s">
+        <v>573</v>
+      </c>
+      <c r="D253" s="17">
+        <v>1</v>
+      </c>
+      <c r="E253" s="97" t="s">
         <v>574</v>
       </c>
-      <c r="B253" s="77" t="s">
-        <v>566</v>
-      </c>
-      <c r="C253" s="77" t="s">
+      <c r="F253" s="97" t="s">
         <v>575</v>
-      </c>
-      <c r="D253" s="17">
-        <v>1</v>
-      </c>
-      <c r="E253" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="F253" s="97" t="s">
-        <v>577</v>
       </c>
       <c r="G253" s="17">
         <v>10</v>
       </c>
       <c r="H253" s="97" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I253" s="72" t="s">
         <v>29</v>
@@ -12513,13 +12513,13 @@
     </row>
     <row r="254" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="97" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B254" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C254" s="77" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D254" s="17">
         <v>1</v>
@@ -12530,7 +12530,7 @@
       <c r="F254" s="97"/>
       <c r="G254" s="17"/>
       <c r="H254" s="97" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I254" s="72" t="s">
         <v>29</v>
@@ -12547,13 +12547,13 @@
     </row>
     <row r="255" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="97" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B255" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C255" s="77" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D255" s="17">
         <v>5</v>
@@ -12562,13 +12562,13 @@
         <v>488</v>
       </c>
       <c r="F255" s="97" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G255" s="17">
         <v>100</v>
       </c>
       <c r="H255" s="97" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I255" s="72" t="s">
         <v>29</v>
@@ -12585,13 +12585,13 @@
     </row>
     <row r="256" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="97" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B256" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C256" s="77" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D256" s="17">
         <v>1</v>
@@ -12600,7 +12600,7 @@
         <v>488</v>
       </c>
       <c r="F256" s="97" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G256" s="17">
         <v>1000</v>
@@ -12623,13 +12623,13 @@
     </row>
     <row r="257" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="97" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B257" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C257" s="77" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D257" s="17">
         <v>1</v>
@@ -12638,7 +12638,7 @@
         <v>62</v>
       </c>
       <c r="F257" s="97" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G257" s="17"/>
       <c r="H257" s="97" t="s">
@@ -12659,13 +12659,13 @@
     </row>
     <row r="258" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="97" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B258" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C258" s="77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D258" s="17">
         <v>1</v>
@@ -12674,13 +12674,13 @@
         <v>62</v>
       </c>
       <c r="F258" s="97" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G258" s="17">
         <v>10</v>
       </c>
       <c r="H258" s="97" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I258" s="72" t="s">
         <v>29</v>
@@ -12697,13 +12697,13 @@
     </row>
     <row r="259" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="97" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B259" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C259" s="77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D259" s="17">
         <v>1</v>
@@ -12712,13 +12712,13 @@
         <v>62</v>
       </c>
       <c r="F259" s="97" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G259" s="17">
         <v>10</v>
       </c>
       <c r="H259" s="97" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I259" s="72" t="s">
         <v>29</v>
@@ -12735,13 +12735,13 @@
     </row>
     <row r="260" spans="1:16" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="97" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B260" s="77" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C260" s="77" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D260" s="17">
         <v>1</v>
@@ -12750,13 +12750,13 @@
         <v>62</v>
       </c>
       <c r="F260" s="97" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G260" s="17">
         <v>10</v>
       </c>
       <c r="H260" s="97" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I260" s="72" t="s">
         <v>29</v>
